--- a/InventoryTemplate.xlsx
+++ b/InventoryTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokal\Documents\GitHub\Wegobuy-Projects\MonthlyInventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokal\Documents\GitHub\MonthlyInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07B09F3-1BFC-4FA8-B72B-A75A47DA3846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A17B480-BD1A-4D7B-B1F8-98ABB2701D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income Statement" sheetId="16" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="132">
   <si>
     <t>Type</t>
   </si>
@@ -423,6 +423,18 @@
   <si>
     <t>Avg LT</t>
   </si>
+  <si>
+    <t>goyard</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>cardholder</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=543020978173&amp;spm=1101.1101.N.N.5ccfebf</t>
+  </si>
 </sst>
 </file>
 
@@ -502,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -558,12 +570,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -610,12 +635,113 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1159,10 +1285,10 @@
   <autoFilter ref="A1:C7" xr:uid="{423054D3-B806-45FE-B5CD-CDB4133D610A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E561F936-1F3D-4A27-BDEF-DE70FF707914}" name="Sales Rep"/>
-    <tableColumn id="2" xr3:uid="{59BD1632-76DC-41FD-B7D6-5B176F01EC08}" name="Amount Sold" dataDxfId="38">
+    <tableColumn id="2" xr3:uid="{59BD1632-76DC-41FD-B7D6-5B176F01EC08}" name="Amount Sold" dataDxfId="47">
       <calculatedColumnFormula>SUMIF(Sold[Sales Rep],Reps[[#This Row],[Sales Rep]],Sold[$ Sold])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6CCF9C48-9936-46E7-8CB7-02286CBB8F96}" name="COGS" dataDxfId="37">
+    <tableColumn id="7" xr3:uid="{6CCF9C48-9936-46E7-8CB7-02286CBB8F96}" name="COGS" dataDxfId="46">
       <calculatedColumnFormula>SUMIF(Sold[Sales Rep],Reps[[#This Row],[Sales Rep]],Sold[COGS])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1171,8 +1297,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B91DAB9-2488-4C65-8D26-8617DE377A7F}" name="Item" displayName="Item" ref="A1:J139" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="A1:J139" xr:uid="{338B19A3-4E7F-4305-8DA8-C1DD932C945D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B91DAB9-2488-4C65-8D26-8617DE377A7F}" name="Item" displayName="Item" ref="A1:J141" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
+  <autoFilter ref="A1:J141" xr:uid="{338B19A3-4E7F-4305-8DA8-C1DD932C945D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{76ECD7E3-2AAF-49EF-B389-8E9AD3EC4889}" name="Item No.">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
@@ -1180,14 +1306,14 @@
     <tableColumn id="2" xr3:uid="{089EB420-BA9D-465F-A82E-00F39746A82B}" name="Name">
       <calculatedColumnFormula>CONCATENATE(D2, " ", E2, " ", F2, " ", G2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{810F8BD1-1554-4324-8BC2-B3DA55D1C66A}" name="Type" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{E34FC3E7-878F-43D0-AC2F-3F57F83516D7}" name="Brand" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{F1C64583-71BC-48AB-B216-992FD862D054}" name="Color" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{6FAA4371-7C0E-4987-B478-43A238D2DC24}" name="Version" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{0934FF0F-667A-48A5-AB7D-FC1B53794619}" name="Size" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{47375999-8B78-4FA8-A989-678115E68572}" name="Price (yuan)" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{5A5859F2-A76E-4289-88C0-31B5E39FA5A4}" name="Weight (kg)" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{B5B344B4-A21A-43DA-94CB-FEFEE6D315AB}" name="Cost (CAD)" dataDxfId="26">
+    <tableColumn id="3" xr3:uid="{810F8BD1-1554-4324-8BC2-B3DA55D1C66A}" name="Type" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{E34FC3E7-878F-43D0-AC2F-3F57F83516D7}" name="Brand" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{F1C64583-71BC-48AB-B216-992FD862D054}" name="Color" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{6FAA4371-7C0E-4987-B478-43A238D2DC24}" name="Version" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{0934FF0F-667A-48A5-AB7D-FC1B53794619}" name="Size" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{47375999-8B78-4FA8-A989-678115E68572}" name="Price (yuan)" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{5A5859F2-A76E-4289-88C0-31B5E39FA5A4}" name="Weight (kg)" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{B5B344B4-A21A-43DA-94CB-FEFEE6D315AB}" name="Cost (CAD)" dataDxfId="35">
       <calculatedColumnFormula>H2/$L$2 + I2*(88/$L$2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1200,7 +1326,7 @@
   <autoFilter ref="A1:D123" xr:uid="{A3364FEC-0216-446E-B47A-1936D1CF0D9A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C55E7E1-1699-4512-A378-3E8388A4CA4A}" name="Item No."/>
-    <tableColumn id="2" xr3:uid="{A0084F60-B9B5-4BC6-8371-A2A9E462C1DB}" name="Name" dataDxfId="25">
+    <tableColumn id="2" xr3:uid="{A0084F60-B9B5-4BC6-8371-A2A9E462C1DB}" name="Name" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{0D59388F-D09D-4D37-84C1-1DB6F0F30E5D}" name="Quantity"/>
@@ -1215,10 +1341,10 @@
   <autoFilter ref="A1:F24" xr:uid="{B1D6D3B7-D72F-446F-BEE7-1981D2202527}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{11A2CD94-A8D7-4499-8CC6-2396CF6F1936}" name="Item No."/>
-    <tableColumn id="2" xr3:uid="{5A0B702F-D35D-4155-BE8E-E03CC6C1DA05}" name="Name" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{5A0B702F-D35D-4155-BE8E-E03CC6C1DA05}" name="Name" dataDxfId="33">
       <calculatedColumnFormula>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D96E9528-30A8-4B3B-BE4F-A9AC6F9A120C}" name="COGS" dataDxfId="23">
+    <tableColumn id="7" xr3:uid="{D96E9528-30A8-4B3B-BE4F-A9AC6F9A120C}" name="COGS" dataDxfId="32">
       <calculatedColumnFormula>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FBD8DE58-B82A-49D9-A6E3-5DF62E16AFC8}" name="Sales Rep"/>
@@ -1235,19 +1361,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32FE0233-B352-41CE-B041-9AB1F875A1E8}" name="Table6" displayName="Table6" ref="A1:E202" totalsRowShown="0">
   <autoFilter ref="A1:E202" xr:uid="{745CBCF9-5879-4910-8252-37DA48775F72}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AC3470A5-26F7-49DF-A63C-6EB586DA625B}" name="Item No." dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{AC3470A5-26F7-49DF-A63C-6EB586DA625B}" name="Item No." dataDxfId="16">
       <calculatedColumnFormula>Item[[#This Row],[Item No.]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{08316D3D-FE6D-4ED2-B0E7-C4A15267A5B0}" name="Name">
       <calculatedColumnFormula>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4EB779E6-1AC3-4338-8605-4C82312737F4}" name="Ordered Qty" dataDxfId="6">
+    <tableColumn id="6" xr3:uid="{4EB779E6-1AC3-4338-8605-4C82312737F4}" name="Ordered Qty" dataDxfId="15">
       <calculatedColumnFormula>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{05421814-BC5C-4151-B7C2-CFA9CD3C1A70}" name="Sold Qty" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{05421814-BC5C-4151-B7C2-CFA9CD3C1A70}" name="Sold Qty" dataDxfId="14">
       <calculatedColumnFormula>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DE870AF7-195A-490B-A40F-07552F264DB6}" name="Stock" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{DE870AF7-195A-490B-A40F-07552F264DB6}" name="Stock" dataDxfId="13">
       <calculatedColumnFormula>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1260,7 +1386,7 @@
   <autoFilter ref="A1:C240" xr:uid="{2065D6E7-2F3A-4A4B-8BDB-6F3FC9CBA9A0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2815B3D4-F6D8-48C7-8513-6E09A4DB4184}" name="Item No."/>
-    <tableColumn id="2" xr3:uid="{9FDF5DDA-42A6-4CD6-9DAD-E068370121FE}" name="Name" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{9FDF5DDA-42A6-4CD6-9DAD-E068370121FE}" name="Name" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(LeadtimeData[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FC321291-4BA5-4204-A6D0-EE9455A51C13}" name="Leadtime"/>
@@ -1273,13 +1399,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{790F9CA1-1F53-41E1-BBB6-35F87C6F66B1}" name="Table5" displayName="Table5" ref="A1:C162" totalsRowShown="0">
   <autoFilter ref="A1:C162" xr:uid="{2EDE1ABF-FBEF-4545-8613-7C6262E1078B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB7E844F-46D4-45EA-ACFF-1532F6DF68B7}" name="Item No." dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{AB7E844F-46D4-45EA-ACFF-1532F6DF68B7}" name="Item No." dataDxfId="11">
       <calculatedColumnFormula>Item[[#This Row],[Item No.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DC1C0296-D13C-4B72-8F1C-E87FFB8E437E}" name="Name" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{DC1C0296-D13C-4B72-8F1C-E87FFB8E437E}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A7271303-53D7-4A86-B0B6-AD31E39F321B}" name="Current Avg LT" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{A7271303-53D7-4A86-B0B6-AD31E39F321B}" name="Current Avg LT" dataDxfId="9">
       <calculatedColumnFormula>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D2)/IF(COUNT(D2) = 1, 2, 1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1553,7 +1679,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1791,7 +1917,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="9">
-        <f>H8</f>
+        <f>B12-B13</f>
         <v>0</v>
       </c>
     </row>
@@ -1807,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8526515F-EB9E-476D-97C1-6C5CB769F361}">
   <dimension ref="A1:M1119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6853,7 +6979,7 @@
         <v>130</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" ref="B134:B139" si="21">CONCATENATE(D134, " ", E134, " ", F134, " ", G134)</f>
+        <f t="shared" ref="B134:B140" si="21">CONCATENATE(D134, " ", E134, " ", F134, " ", G134)</f>
         <v>astroworld black tour l</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -7085,11 +7211,62 @@
       <c r="M139" s="1"/>
     </row>
     <row r="140" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K140" s="1"/>
+      <c r="A140" s="20">
+        <v>139</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">goyard brown cardholder </v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F140" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21">
+        <v>35</v>
+      </c>
+      <c r="I140" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="J140" s="22">
+        <f>H140/$L$2 + I140*(88/$L$2)</f>
+        <v>9.8666666666666671</v>
+      </c>
+      <c r="K140" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="20">
+        <f>A140+1</f>
+        <v>140</v>
+      </c>
+      <c r="B141" s="20" t="str">
+        <f>CONCATENATE(D141, " ", E141, " ", F141, " ", G141)</f>
+        <v xml:space="preserve">   </v>
+      </c>
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
+      <c r="J141" s="22">
+        <f>H141/$L$2 + I141*(88/$L$2)</f>
+        <v>0</v>
+      </c>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
@@ -11986,9 +12163,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K140" r:id="rId1" xr:uid="{C0CD6A4B-7C0F-4DCB-8192-FD95ACB525ED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11997,7 +12177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEF4D07-B6AA-45FB-B16D-272A6E7101A5}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -13135,8 +13315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A2DDF1-7DF8-49E1-8788-877E2A282819}">
   <dimension ref="A1:Q1116"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J139" sqref="J139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20376,13 +20556,13 @@
       </c>
     </row>
     <row r="140" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" t="e">
+      <c r="A140">
         <f>Item[[#This Row],[Item No.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B140" t="e">
+        <v>139</v>
+      </c>
+      <c r="B140" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v xml:space="preserve">goyard brown cardholder </v>
       </c>
       <c r="C140">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
@@ -20396,9 +20576,15 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F140</f>
         <v>0</v>
       </c>
+      <c r="G140" s="24">
+        <v>35</v>
+      </c>
+      <c r="H140" s="24">
+        <v>0.09</v>
+      </c>
       <c r="I140" s="12">
         <f>G140/'Item List'!$L$2 + H140*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>9.8666666666666671</v>
       </c>
       <c r="K140">
         <f>'WH LT Total'!E140+'Parcel LT'!$F$2</f>
@@ -20408,13 +20594,13 @@
         <f t="shared" ref="L140" si="12">ROUNDUP((J140/30 * K140),0)</f>
         <v>0</v>
       </c>
-      <c r="M140" t="e">
+      <c r="M140">
         <f t="shared" ref="M140" si="13">ROUNDUP(SQRT((J140*2*(42*H140))/(0.1*G140)),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N140" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="N140" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L140,M140*I140,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q140">
         <f>I140*Table6[[#This Row],[Stock]]</f>
@@ -20422,13 +20608,13 @@
       </c>
     </row>
     <row r="141" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" t="e">
+      <c r="A141">
         <f>Item[[#This Row],[Item No.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B141" t="e">
+        <v>140</v>
+      </c>
+      <c r="B141" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="C141">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
@@ -28754,62 +28940,99 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="lessThan">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="greaterThan">
       <formula>$L$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
       <formula>$L$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E139">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="lessThan">
       <formula>L2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>L2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
       <formula>L2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140:E202">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140:E202">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140:E202">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140:E202">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+      <formula>$L$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E140:E202">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>L140</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>L140</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>L140</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33220,13 +33443,13 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="7" t="e">
+      <c r="A140" s="7">
         <f>Item[[#This Row],[Item No.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B140" s="7" t="e">
+        <v>139</v>
+      </c>
+      <c r="B140" s="7" t="str">
         <f>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v xml:space="preserve">goyard brown cardholder </v>
       </c>
       <c r="C140" t="e">
         <f>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D140)/IF(COUNT(D140) = 1, 2, 1)</f>
@@ -33241,13 +33464,13 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="7" t="e">
+      <c r="A141" s="7">
         <f>Item[[#This Row],[Item No.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B141" s="7" t="e">
+        <v>140</v>
+      </c>
+      <c r="B141" s="7" t="str">
         <f>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v xml:space="preserve">   </v>
       </c>
       <c r="C141" t="e">
         <f>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D141)/IF(COUNT(D141) = 1, 2, 1)</f>

--- a/InventoryTemplate.xlsx
+++ b/InventoryTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokal\Documents\GitHub\MonthlyInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A17B480-BD1A-4D7B-B1F8-98ABB2701D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01875D8E-9430-4F24-B3CC-F92A8F9482D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income Statement" sheetId="16" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="145">
   <si>
     <t>Type</t>
   </si>
@@ -358,9 +358,6 @@
     <t>Less: Commissions</t>
   </si>
   <si>
-    <t>Exchange Rate (Wegobuy)</t>
-  </si>
-  <si>
     <t>double (red + gold) heart</t>
   </si>
   <si>
@@ -435,6 +432,48 @@
   <si>
     <t>https://item.taobao.com/item.htm?id=543020978173&amp;spm=1101.1101.N.N.5ccfebf</t>
   </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=543020978173&amp;spm=1101.1101.N.N.b73733</t>
+  </si>
+  <si>
+    <t>shorts</t>
+  </si>
+  <si>
+    <t>fog style</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z0d.7625083.1998302264.6.5c5f4e69OBEbbf&amp;id=596562620476</t>
+  </si>
+  <si>
+    <t>low crazy hearts</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.14a12e8d8l0u2F&amp;id=617077831827&amp;_u=u2029u6ka24862</t>
+  </si>
+  <si>
+    <t>Wegobuy</t>
+  </si>
+  <si>
+    <t>Taobao</t>
+  </si>
+  <si>
+    <t>Yucheng</t>
+  </si>
+  <si>
+    <t>Wingspeed</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>Shipping Rate (yuan/kg)</t>
+  </si>
+  <si>
+    <t>Amount Shipped (kg)</t>
+  </si>
+  <si>
+    <t>Price Shipped (kg)</t>
+  </si>
 </sst>
 </file>
 
@@ -488,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +549,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF08888"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -613,7 +676,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -646,12 +708,152 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="57">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -741,30 +943,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1285,10 +1463,10 @@
   <autoFilter ref="A1:C7" xr:uid="{423054D3-B806-45FE-B5CD-CDB4133D610A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E561F936-1F3D-4A27-BDEF-DE70FF707914}" name="Sales Rep"/>
-    <tableColumn id="2" xr3:uid="{59BD1632-76DC-41FD-B7D6-5B176F01EC08}" name="Amount Sold" dataDxfId="47">
+    <tableColumn id="2" xr3:uid="{59BD1632-76DC-41FD-B7D6-5B176F01EC08}" name="Amount Sold" dataDxfId="56">
       <calculatedColumnFormula>SUMIF(Sold[Sales Rep],Reps[[#This Row],[Sales Rep]],Sold[$ Sold])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6CCF9C48-9936-46E7-8CB7-02286CBB8F96}" name="COGS" dataDxfId="46">
+    <tableColumn id="7" xr3:uid="{6CCF9C48-9936-46E7-8CB7-02286CBB8F96}" name="COGS" dataDxfId="55">
       <calculatedColumnFormula>SUMIF(Sold[Sales Rep],Reps[[#This Row],[Sales Rep]],Sold[COGS])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1297,8 +1475,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B91DAB9-2488-4C65-8D26-8617DE377A7F}" name="Item" displayName="Item" ref="A1:J141" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
-  <autoFilter ref="A1:J141" xr:uid="{338B19A3-4E7F-4305-8DA8-C1DD932C945D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B91DAB9-2488-4C65-8D26-8617DE377A7F}" name="Item" displayName="Item" ref="A1:J148" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
+  <autoFilter ref="A1:J148" xr:uid="{338B19A3-4E7F-4305-8DA8-C1DD932C945D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{76ECD7E3-2AAF-49EF-B389-8E9AD3EC4889}" name="Item No.">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
@@ -1306,14 +1484,14 @@
     <tableColumn id="2" xr3:uid="{089EB420-BA9D-465F-A82E-00F39746A82B}" name="Name">
       <calculatedColumnFormula>CONCATENATE(D2, " ", E2, " ", F2, " ", G2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{810F8BD1-1554-4324-8BC2-B3DA55D1C66A}" name="Type" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{E34FC3E7-878F-43D0-AC2F-3F57F83516D7}" name="Brand" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{F1C64583-71BC-48AB-B216-992FD862D054}" name="Color" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{6FAA4371-7C0E-4987-B478-43A238D2DC24}" name="Version" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{0934FF0F-667A-48A5-AB7D-FC1B53794619}" name="Size" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{47375999-8B78-4FA8-A989-678115E68572}" name="Price (yuan)" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{5A5859F2-A76E-4289-88C0-31B5E39FA5A4}" name="Weight (kg)" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{B5B344B4-A21A-43DA-94CB-FEFEE6D315AB}" name="Cost (CAD)" dataDxfId="35">
+    <tableColumn id="3" xr3:uid="{810F8BD1-1554-4324-8BC2-B3DA55D1C66A}" name="Type" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{E34FC3E7-878F-43D0-AC2F-3F57F83516D7}" name="Brand" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{F1C64583-71BC-48AB-B216-992FD862D054}" name="Color" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{6FAA4371-7C0E-4987-B478-43A238D2DC24}" name="Version" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{0934FF0F-667A-48A5-AB7D-FC1B53794619}" name="Size" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{47375999-8B78-4FA8-A989-678115E68572}" name="Price (yuan)" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{5A5859F2-A76E-4289-88C0-31B5E39FA5A4}" name="Weight (kg)" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{B5B344B4-A21A-43DA-94CB-FEFEE6D315AB}" name="Cost (CAD)" dataDxfId="44">
       <calculatedColumnFormula>H2/$L$2 + I2*(88/$L$2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1326,7 +1504,7 @@
   <autoFilter ref="A1:D123" xr:uid="{A3364FEC-0216-446E-B47A-1936D1CF0D9A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C55E7E1-1699-4512-A378-3E8388A4CA4A}" name="Item No."/>
-    <tableColumn id="2" xr3:uid="{A0084F60-B9B5-4BC6-8371-A2A9E462C1DB}" name="Name" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{A0084F60-B9B5-4BC6-8371-A2A9E462C1DB}" name="Name" dataDxfId="43">
       <calculatedColumnFormula>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{0D59388F-D09D-4D37-84C1-1DB6F0F30E5D}" name="Quantity"/>
@@ -1341,10 +1519,10 @@
   <autoFilter ref="A1:F24" xr:uid="{B1D6D3B7-D72F-446F-BEE7-1981D2202527}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{11A2CD94-A8D7-4499-8CC6-2396CF6F1936}" name="Item No."/>
-    <tableColumn id="2" xr3:uid="{5A0B702F-D35D-4155-BE8E-E03CC6C1DA05}" name="Name" dataDxfId="33">
+    <tableColumn id="2" xr3:uid="{5A0B702F-D35D-4155-BE8E-E03CC6C1DA05}" name="Name" dataDxfId="42">
       <calculatedColumnFormula>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D96E9528-30A8-4B3B-BE4F-A9AC6F9A120C}" name="COGS" dataDxfId="32">
+    <tableColumn id="7" xr3:uid="{D96E9528-30A8-4B3B-BE4F-A9AC6F9A120C}" name="COGS" dataDxfId="41">
       <calculatedColumnFormula>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FBD8DE58-B82A-49D9-A6E3-5DF62E16AFC8}" name="Sales Rep"/>
@@ -1361,19 +1539,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32FE0233-B352-41CE-B041-9AB1F875A1E8}" name="Table6" displayName="Table6" ref="A1:E202" totalsRowShown="0">
   <autoFilter ref="A1:E202" xr:uid="{745CBCF9-5879-4910-8252-37DA48775F72}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AC3470A5-26F7-49DF-A63C-6EB586DA625B}" name="Item No." dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{AC3470A5-26F7-49DF-A63C-6EB586DA625B}" name="Item No." dataDxfId="3">
       <calculatedColumnFormula>Item[[#This Row],[Item No.]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{08316D3D-FE6D-4ED2-B0E7-C4A15267A5B0}" name="Name">
       <calculatedColumnFormula>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4EB779E6-1AC3-4338-8605-4C82312737F4}" name="Ordered Qty" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{4EB779E6-1AC3-4338-8605-4C82312737F4}" name="Ordered Qty" dataDxfId="2">
       <calculatedColumnFormula>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{05421814-BC5C-4151-B7C2-CFA9CD3C1A70}" name="Sold Qty" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{05421814-BC5C-4151-B7C2-CFA9CD3C1A70}" name="Sold Qty" dataDxfId="1">
       <calculatedColumnFormula>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DE870AF7-195A-490B-A40F-07552F264DB6}" name="Stock" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{DE870AF7-195A-490B-A40F-07552F264DB6}" name="Stock" dataDxfId="0">
       <calculatedColumnFormula>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1386,7 +1564,7 @@
   <autoFilter ref="A1:C240" xr:uid="{2065D6E7-2F3A-4A4B-8BDB-6F3FC9CBA9A0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2815B3D4-F6D8-48C7-8513-6E09A4DB4184}" name="Item No."/>
-    <tableColumn id="2" xr3:uid="{9FDF5DDA-42A6-4CD6-9DAD-E068370121FE}" name="Name" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{9FDF5DDA-42A6-4CD6-9DAD-E068370121FE}" name="Name" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(LeadtimeData[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FC321291-4BA5-4204-A6D0-EE9455A51C13}" name="Leadtime"/>
@@ -1399,13 +1577,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{790F9CA1-1F53-41E1-BBB6-35F87C6F66B1}" name="Table5" displayName="Table5" ref="A1:C162" totalsRowShown="0">
   <autoFilter ref="A1:C162" xr:uid="{2EDE1ABF-FBEF-4545-8613-7C6262E1078B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB7E844F-46D4-45EA-ACFF-1532F6DF68B7}" name="Item No." dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{AB7E844F-46D4-45EA-ACFF-1532F6DF68B7}" name="Item No." dataDxfId="15">
       <calculatedColumnFormula>Item[[#This Row],[Item No.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DC1C0296-D13C-4B72-8F1C-E87FFB8E437E}" name="Name" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{DC1C0296-D13C-4B72-8F1C-E87FFB8E437E}" name="Name" dataDxfId="14">
       <calculatedColumnFormula>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A7271303-53D7-4A86-B0B6-AD31E39F321B}" name="Current Avg LT" dataDxfId="9">
+    <tableColumn id="3" xr3:uid="{A7271303-53D7-4A86-B0B6-AD31E39F321B}" name="Current Avg LT" dataDxfId="13">
       <calculatedColumnFormula>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D2)/IF(COUNT(D2) = 1, 2, 1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1931,10 +2109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8526515F-EB9E-476D-97C1-6C5CB769F361}">
-  <dimension ref="A1:M1119"/>
+  <dimension ref="A1:P1119"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="I141" sqref="I141"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1945,7 +2123,7 @@
     <col min="6" max="6" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1976,14 +2154,23 @@
       <c r="J1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2014,16 +2201,30 @@
       </c>
       <c r="J2" s="3">
         <f t="shared" ref="J2:J33" si="0">H2/$L$2 + I2*(88/$L$2)</f>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K2" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="10">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L2" s="27">
+        <v>4.49</v>
+      </c>
+      <c r="M2" s="28">
+        <v>4.99</v>
+      </c>
+      <c r="N2" s="29">
+        <f>M2</f>
+        <v>4.99</v>
+      </c>
+      <c r="O2" s="30">
+        <f>M2</f>
+        <v>4.99</v>
+      </c>
+      <c r="P2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -2055,19 +2256,38 @@
       </c>
       <c r="J3" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K3" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L3" s="27" t="e">
+        <f>L5/L4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="31" t="e">
+        <f t="shared" ref="M3:O3" si="1">M5/M4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" s="33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
-        <f t="shared" ref="A4:A70" si="1">A3+1</f>
+        <f t="shared" ref="A4:A70" si="2">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B68" si="2">CONCATENATE(D4, " ", E4, " ", F4, " ", G4)</f>
+        <f t="shared" ref="B4:B68" si="3">CONCATENATE(D4, " ", E4, " ", F4, " ", G4)</f>
         <v>cdg navy gold heart xl</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2093,19 +2313,22 @@
       </c>
       <c r="J4" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K4" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg white red heart m</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2131,19 +2354,22 @@
       </c>
       <c r="J5" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K5" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg white red heart l</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2169,19 +2395,19 @@
       </c>
       <c r="J6" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K6" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg white red heart xl</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2207,19 +2433,19 @@
       </c>
       <c r="J7" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K7" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg black red heart m</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2245,19 +2471,19 @@
       </c>
       <c r="J8" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K8" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg black red heart l</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2283,19 +2509,19 @@
       </c>
       <c r="J9" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K9" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg black red heart xl</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2321,19 +2547,19 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K10" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg white gold heart m</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2359,19 +2585,19 @@
       </c>
       <c r="J11" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K11" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg white gold heart l</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2397,19 +2623,19 @@
       </c>
       <c r="J12" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K12" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg white gold heart xl</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2435,19 +2661,19 @@
       </c>
       <c r="J13" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K13" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg black gold heart m</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2473,19 +2699,19 @@
       </c>
       <c r="J14" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K14" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg black gold heart l</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2511,19 +2737,19 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K15" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg black gold heart xl</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2549,19 +2775,19 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K16" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg white black heart m</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2587,19 +2813,19 @@
       </c>
       <c r="J17" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K17" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg white black heart l</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2625,19 +2851,19 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K18" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg white black heart xl</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -2663,19 +2889,19 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K19" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg black black heart m</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2701,19 +2927,19 @@
       </c>
       <c r="J20" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K20" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg black black heart l</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2739,19 +2965,19 @@
       </c>
       <c r="J21" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K21" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg black black heart xl</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2777,19 +3003,19 @@
       </c>
       <c r="J22" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K22" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg gray black heart m</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2815,19 +3041,19 @@
       </c>
       <c r="J23" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K23" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg gray black heart l</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2853,19 +3079,19 @@
       </c>
       <c r="J24" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K24" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg gray black heart xl</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2891,19 +3117,19 @@
       </c>
       <c r="J25" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K25" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg gray gold heart m</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2929,19 +3155,19 @@
       </c>
       <c r="J26" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K26" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg gray gold heart l</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2967,19 +3193,19 @@
       </c>
       <c r="J27" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K27" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg gray gold heart xl</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3005,19 +3231,19 @@
       </c>
       <c r="J28" s="3">
         <f t="shared" si="0"/>
-        <v>12.983908045977012</v>
-      </c>
-      <c r="K28" s="13" t="s">
+        <v>12.579064587973273</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg gray double heart m</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3043,19 +3269,19 @@
       </c>
       <c r="J29" s="3">
         <f t="shared" si="0"/>
-        <v>14.593103448275862</v>
-      </c>
-      <c r="K29" s="13" t="s">
+        <v>14.138084632516703</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg gray double heart l</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3081,19 +3307,19 @@
       </c>
       <c r="J30" s="3">
         <f t="shared" si="0"/>
-        <v>14.593103448275862</v>
-      </c>
-      <c r="K30" s="13" t="s">
+        <v>14.138084632516703</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg gray double heart xl</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3119,19 +3345,19 @@
       </c>
       <c r="J31" s="3">
         <f t="shared" si="0"/>
-        <v>14.593103448275862</v>
-      </c>
-      <c r="K31" s="13" t="s">
+        <v>14.138084632516703</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg white double heart m</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3157,19 +3383,19 @@
       </c>
       <c r="J32" s="3">
         <f t="shared" si="0"/>
-        <v>14.593103448275862</v>
-      </c>
-      <c r="K32" s="13" t="s">
+        <v>14.138084632516703</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg white double heart l</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3195,19 +3421,19 @@
       </c>
       <c r="J33" s="3">
         <f t="shared" si="0"/>
-        <v>14.593103448275862</v>
-      </c>
-      <c r="K33" s="13" t="s">
+        <v>14.138084632516703</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg white double heart xl</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3232,20 +3458,20 @@
         <v>0.21</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" ref="J34:J68" si="3">H34/$L$2 + I34*(88/$L$2)</f>
-        <v>14.593103448275862</v>
-      </c>
-      <c r="K34" s="13" t="s">
+        <f t="shared" ref="J34:J68" si="4">H34/$L$2 + I34*(88/$L$2)</f>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg black double (red + gold) heart m</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3258,7 +3484,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>32</v>
@@ -3270,20 +3496,20 @@
         <v>0.21</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="3"/>
-        <v>14.593103448275862</v>
-      </c>
-      <c r="K35" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg black double (red + gold) heart l</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3296,7 +3522,7 @@
         <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>33</v>
@@ -3308,10 +3534,10 @@
         <v>0.21</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" si="3"/>
-        <v>14.593103448275862</v>
-      </c>
-      <c r="K36" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3321,7 +3547,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>cdg black double (red + gold) heart xl</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3334,7 +3560,7 @@
         <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>31</v>
@@ -3346,10 +3572,10 @@
         <v>0.21</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="3"/>
-        <v>14.593103448275862</v>
-      </c>
-      <c r="K37" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="K37" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3358,7 +3584,7 @@
         <v>131</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" ref="B38:B40" si="4">CONCATENATE(D38, " ", E38, " ", F38, " ", G38)</f>
+        <f t="shared" ref="B38:B40" si="5">CONCATENATE(D38, " ", E38, " ", F38, " ", G38)</f>
         <v>cdg black double (red + red) heart m</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3371,7 +3597,7 @@
         <v>30</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>32</v>
@@ -3383,10 +3609,10 @@
         <v>0.21</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" ref="J38:J40" si="5">H38/$L$2 + I38*(88/$L$2)</f>
-        <v>14.593103448275862</v>
-      </c>
-      <c r="K38" s="13" t="s">
+        <f t="shared" ref="J38:J40" si="6">H38/$L$2 + I38*(88/$L$2)</f>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3395,7 +3621,7 @@
         <v>132</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>cdg black double (red + red) heart l</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3408,7 +3634,7 @@
         <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>33</v>
@@ -3420,10 +3646,10 @@
         <v>0.21</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="5"/>
-        <v>14.593103448275862</v>
-      </c>
-      <c r="K39" s="13" t="s">
+        <f t="shared" si="6"/>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3432,7 +3658,7 @@
         <v>133</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>cdg black double (red + red) heart xl</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3445,7 +3671,7 @@
         <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>31</v>
@@ -3457,10 +3683,10 @@
         <v>0.21</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="5"/>
-        <v>14.593103448275862</v>
-      </c>
-      <c r="K40" s="13" t="s">
+        <f t="shared" si="6"/>
+        <v>14.138084632516703</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3470,7 +3696,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus white chief m</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3495,20 +3721,20 @@
         <v>0.17</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K41" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus white chief l</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3533,20 +3759,20 @@
         <v>0.17</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K42" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K42" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus white chief xl</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -3571,20 +3797,20 @@
         <v>0.17</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K43" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus white skull m</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -3609,20 +3835,20 @@
         <v>0.17</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K44" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus white skull l</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3647,20 +3873,20 @@
         <v>0.17</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K45" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus white skull xl</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -3685,20 +3911,20 @@
         <v>0.17</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K46" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus white grim m</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -3723,20 +3949,20 @@
         <v>0.17</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K47" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus white grim l</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -3761,20 +3987,20 @@
         <v>0.17</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K48" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus white grim xl</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3799,20 +4025,20 @@
         <v>0.17</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K49" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus black chief m</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -3837,20 +4063,20 @@
         <v>0.17</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K50" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K50" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus black chief l</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3875,20 +4101,20 @@
         <v>0.17</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K51" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus black chief xl</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -3913,20 +4139,20 @@
         <v>0.17</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K52" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus black skull m</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -3951,20 +4177,20 @@
         <v>0.17</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K53" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K53" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus black skull l</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -3989,20 +4215,20 @@
         <v>0.17</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K54" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K54" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus black skull xl</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4027,20 +4253,20 @@
         <v>0.17</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K55" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K55" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus black grim m</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4065,20 +4291,20 @@
         <v>0.17</v>
       </c>
       <c r="J56" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K56" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus black grim l</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4103,20 +4329,20 @@
         <v>0.17</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K57" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>yeezus black grim xl</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4141,20 +4367,20 @@
         <v>0.17</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" si="3"/>
-        <v>13.508045977011495</v>
-      </c>
-      <c r="K58" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>13.08685968819599</v>
+      </c>
+      <c r="K58" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>assc white kkoch m</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -4179,20 +4405,20 @@
         <v>0.24</v>
       </c>
       <c r="J59" s="3">
-        <f t="shared" si="3"/>
-        <v>19.79770114942529</v>
-      </c>
-      <c r="K59" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>19.180400890868597</v>
+      </c>
+      <c r="K59" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>assc white kkoch l</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -4217,20 +4443,20 @@
         <v>0.24</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="3"/>
-        <v>19.79770114942529</v>
-      </c>
-      <c r="K60" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>19.180400890868597</v>
+      </c>
+      <c r="K60" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>assc black kkoch m</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -4255,20 +4481,20 @@
         <v>0.24</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" si="3"/>
-        <v>19.79770114942529</v>
-      </c>
-      <c r="K61" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>19.180400890868597</v>
+      </c>
+      <c r="K61" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>assc black kkoch l</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -4293,20 +4519,20 @@
         <v>0.24</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="3"/>
-        <v>19.79770114942529</v>
-      </c>
-      <c r="K62" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>19.180400890868597</v>
+      </c>
+      <c r="K62" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>assc white cherry m</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -4331,20 +4557,20 @@
         <v>0.24</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="3"/>
-        <v>19.79770114942529</v>
-      </c>
-      <c r="K63" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>19.180400890868597</v>
+      </c>
+      <c r="K63" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>assc white cherry l</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -4369,20 +4595,20 @@
         <v>0.24</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="3"/>
-        <v>19.79770114942529</v>
-      </c>
-      <c r="K64" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>19.180400890868597</v>
+      </c>
+      <c r="K64" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>assc black cherry m</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -4407,20 +4633,20 @@
         <v>0.24</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="3"/>
-        <v>19.79770114942529</v>
-      </c>
-      <c r="K65" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>19.180400890868597</v>
+      </c>
+      <c r="K65" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>assc black cherry l</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -4445,20 +4671,20 @@
         <v>0.24</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" si="3"/>
-        <v>19.79770114942529</v>
-      </c>
-      <c r="K66" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>19.180400890868597</v>
+      </c>
+      <c r="K66" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>assc white cs m</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -4483,20 +4709,20 @@
         <v>0.2</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="3"/>
-        <v>10.712643678160919</v>
-      </c>
-      <c r="K67" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>10.378619153674833</v>
+      </c>
+      <c r="K67" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>assc white cs l</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -4521,20 +4747,20 @@
         <v>0.2</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" si="3"/>
-        <v>10.712643678160919</v>
-      </c>
-      <c r="K68" s="13" t="s">
+        <f t="shared" si="4"/>
+        <v>10.378619153674833</v>
+      </c>
+      <c r="K68" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" ref="B69:B113" si="6">CONCATENATE(D69, " ", E69, " ", F69, " ", G69)</f>
+        <f t="shared" ref="B69:B113" si="7">CONCATENATE(D69, " ", E69, " ", F69, " ", G69)</f>
         <v>assc black cs m</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -4559,20 +4785,20 @@
         <v>0.2</v>
       </c>
       <c r="J69" s="3">
-        <f t="shared" ref="J69:J100" si="7">H69/$L$2 + I69*(88/$L$2)</f>
-        <v>10.712643678160919</v>
-      </c>
-      <c r="K69" s="13" t="s">
+        <f t="shared" ref="J69:J100" si="8">H69/$L$2 + I69*(88/$L$2)</f>
+        <v>10.378619153674833</v>
+      </c>
+      <c r="K69" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>assc black cs l</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -4597,20 +4823,20 @@
         <v>0.2</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="7"/>
-        <v>10.712643678160919</v>
-      </c>
-      <c r="K70" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>10.378619153674833</v>
+      </c>
+      <c r="K70" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71">
-        <f t="shared" ref="A71:A112" si="8">A70+1</f>
+        <f t="shared" ref="A71:A112" si="9">A70+1</f>
         <v>67</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas triple white 4 40</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -4635,20 +4861,20 @@
         <v>0.9</v>
       </c>
       <c r="J71" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K71" s="14" t="s">
-        <v>115</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas triple white 4 41</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -4673,20 +4899,20 @@
         <v>0.9</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>110</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas triple white 4 42</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -4711,20 +4937,20 @@
         <v>0.9</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K73" s="14" t="s">
-        <v>110</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas triple white 4 43</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -4749,20 +4975,20 @@
         <v>0.9</v>
       </c>
       <c r="J74" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K74" s="14" t="s">
-        <v>110</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas triple white 4 44</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -4787,20 +5013,20 @@
         <v>0.9</v>
       </c>
       <c r="J75" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K75" s="14" t="s">
-        <v>110</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas core black 4 40</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -4825,20 +5051,20 @@
         <v>0.9</v>
       </c>
       <c r="J76" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K76" s="14" t="s">
-        <v>112</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas core black 4 41</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -4863,20 +5089,20 @@
         <v>0.9</v>
       </c>
       <c r="J77" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K77" s="15" t="s">
-        <v>112</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas core black 4 42</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -4901,20 +5127,20 @@
         <v>0.9</v>
       </c>
       <c r="J78" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K78" s="15" t="s">
-        <v>112</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas core black 4 43</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -4939,20 +5165,20 @@
         <v>0.9</v>
       </c>
       <c r="J79" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K79" s="15" t="s">
-        <v>112</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas core black 4 44</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -4977,20 +5203,20 @@
         <v>0.9</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K80" s="15" t="s">
-        <v>112</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas gray multicolor 4 40</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -5015,20 +5241,20 @@
         <v>0.9</v>
       </c>
       <c r="J81" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K81" s="14" t="s">
-        <v>111</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas gray multicolor 4 41</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -5053,20 +5279,20 @@
         <v>0.9</v>
       </c>
       <c r="J82" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K82" s="14" t="s">
-        <v>111</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>79</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas gray multicolor 4 42</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -5091,20 +5317,20 @@
         <v>0.9</v>
       </c>
       <c r="J83" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K83" s="14" t="s">
-        <v>111</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas gray multicolor 4 43</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -5129,20 +5355,20 @@
         <v>0.9</v>
       </c>
       <c r="J84" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K84" s="14" t="s">
-        <v>111</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>adidas gray multicolor 4 44</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -5167,11 +5393,11 @@
         <v>0.9</v>
       </c>
       <c r="J85" s="3">
-        <f t="shared" si="7"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K85" s="14" t="s">
-        <v>111</v>
+        <f t="shared" si="8"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K85" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5180,7 +5406,7 @@
         <v>82</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg cream high 40</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -5205,20 +5431,20 @@
         <v>1.5</v>
       </c>
       <c r="J86" s="3">
-        <f t="shared" si="7"/>
-        <v>73.563218390804593</v>
-      </c>
-      <c r="K86" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>71.269487750556792</v>
+      </c>
+      <c r="K86" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg cream high 41</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -5243,20 +5469,20 @@
         <v>1.5</v>
       </c>
       <c r="J87" s="3">
-        <f t="shared" si="7"/>
-        <v>73.563218390804593</v>
-      </c>
-      <c r="K87" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>71.269487750556792</v>
+      </c>
+      <c r="K87" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg cream high 42</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -5281,20 +5507,20 @@
         <v>1.5</v>
       </c>
       <c r="J88" s="3">
-        <f t="shared" si="7"/>
-        <v>73.563218390804593</v>
-      </c>
-      <c r="K88" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>71.269487750556792</v>
+      </c>
+      <c r="K88" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg cream high 43</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -5319,20 +5545,20 @@
         <v>1.5</v>
       </c>
       <c r="J89" s="3">
-        <f t="shared" si="7"/>
-        <v>73.563218390804593</v>
-      </c>
-      <c r="K89" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>71.269487750556792</v>
+      </c>
+      <c r="K89" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg cream high 44</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -5357,20 +5583,20 @@
         <v>1.5</v>
       </c>
       <c r="J90" s="3">
-        <f t="shared" si="7"/>
-        <v>73.563218390804593</v>
-      </c>
-      <c r="K90" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>71.269487750556792</v>
+      </c>
+      <c r="K90" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg black high 40</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -5395,20 +5621,20 @@
         <v>1.5</v>
       </c>
       <c r="J91" s="3">
-        <f t="shared" si="7"/>
-        <v>73.563218390804593</v>
-      </c>
-      <c r="K91" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>71.269487750556792</v>
+      </c>
+      <c r="K91" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg black high 41</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -5433,20 +5659,20 @@
         <v>1.5</v>
       </c>
       <c r="J92" s="3">
-        <f t="shared" si="7"/>
-        <v>73.563218390804593</v>
-      </c>
-      <c r="K92" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>71.269487750556792</v>
+      </c>
+      <c r="K92" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>89</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg black high 42</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -5471,20 +5697,20 @@
         <v>1.5</v>
       </c>
       <c r="J93" s="3">
-        <f t="shared" si="7"/>
-        <v>73.563218390804593</v>
-      </c>
-      <c r="K93" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>71.269487750556792</v>
+      </c>
+      <c r="K93" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg black high 43</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -5509,20 +5735,20 @@
         <v>1.5</v>
       </c>
       <c r="J94" s="3">
-        <f t="shared" si="7"/>
-        <v>73.563218390804593</v>
-      </c>
-      <c r="K94" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>71.269487750556792</v>
+      </c>
+      <c r="K94" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg black high 44</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -5547,20 +5773,20 @@
         <v>1.5</v>
       </c>
       <c r="J95" s="3">
-        <f t="shared" si="7"/>
-        <v>73.563218390804593</v>
-      </c>
-      <c r="K95" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>71.269487750556792</v>
+      </c>
+      <c r="K95" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg cream low 40</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -5585,20 +5811,20 @@
         <v>1.4</v>
       </c>
       <c r="J96" s="3">
-        <f t="shared" si="7"/>
-        <v>71.540229885057471</v>
-      </c>
-      <c r="K96" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>69.309576837416472</v>
+      </c>
+      <c r="K96" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg cream low 41</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -5623,20 +5849,20 @@
         <v>1.4</v>
       </c>
       <c r="J97" s="3">
-        <f t="shared" si="7"/>
-        <v>71.540229885057471</v>
-      </c>
-      <c r="K97" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>69.309576837416472</v>
+      </c>
+      <c r="K97" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>94</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg cream low 42</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -5661,20 +5887,20 @@
         <v>1.4</v>
       </c>
       <c r="J98" s="3">
-        <f t="shared" si="7"/>
-        <v>71.540229885057471</v>
-      </c>
-      <c r="K98" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>69.309576837416472</v>
+      </c>
+      <c r="K98" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg cream low 43</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -5699,20 +5925,20 @@
         <v>1.4</v>
       </c>
       <c r="J99" s="3">
-        <f t="shared" si="7"/>
-        <v>71.540229885057471</v>
-      </c>
-      <c r="K99" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>69.309576837416472</v>
+      </c>
+      <c r="K99" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg cream low 44</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -5737,20 +5963,20 @@
         <v>1.4</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" si="7"/>
-        <v>71.540229885057471</v>
-      </c>
-      <c r="K100" s="13" t="s">
+        <f t="shared" si="8"/>
+        <v>69.309576837416472</v>
+      </c>
+      <c r="K100" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>97</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg black low 40</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -5775,20 +6001,20 @@
         <v>1.4</v>
       </c>
       <c r="J101" s="3">
-        <f t="shared" ref="J101:J132" si="9">H101/$L$2 + I101*(88/$L$2)</f>
-        <v>71.540229885057471</v>
-      </c>
-      <c r="K101" s="13" t="s">
+        <f t="shared" ref="J101:J132" si="10">H101/$L$2 + I101*(88/$L$2)</f>
+        <v>69.309576837416472</v>
+      </c>
+      <c r="K101" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>98</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg black low 41</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -5813,20 +6039,20 @@
         <v>1.4</v>
       </c>
       <c r="J102" s="3">
-        <f t="shared" si="9"/>
-        <v>71.540229885057471</v>
-      </c>
-      <c r="K102" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>69.309576837416472</v>
+      </c>
+      <c r="K102" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>99</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg black low 42</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -5851,20 +6077,20 @@
         <v>1.4</v>
       </c>
       <c r="J103" s="3">
-        <f t="shared" si="9"/>
-        <v>71.540229885057471</v>
-      </c>
-      <c r="K103" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>69.309576837416472</v>
+      </c>
+      <c r="K103" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg black low 43</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -5889,20 +6115,20 @@
         <v>1.4</v>
       </c>
       <c r="J104" s="3">
-        <f t="shared" si="9"/>
-        <v>71.540229885057471</v>
-      </c>
-      <c r="K104" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>69.309576837416472</v>
+      </c>
+      <c r="K104" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>cdg black low 44</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -5927,20 +6153,20 @@
         <v>1.4</v>
       </c>
       <c r="J105" s="3">
-        <f t="shared" si="9"/>
-        <v>71.540229885057471</v>
-      </c>
-      <c r="K105" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>69.309576837416472</v>
+      </c>
+      <c r="K105" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>nike white air force 1 40</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -5965,20 +6191,20 @@
         <v>1.2</v>
       </c>
       <c r="J106" s="3">
-        <f t="shared" si="9"/>
-        <v>53.701149425287355</v>
-      </c>
-      <c r="K106" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>52.026726057906458</v>
+      </c>
+      <c r="K106" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>103</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>nike white air force 1 41</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -6003,20 +6229,20 @@
         <v>1.2</v>
       </c>
       <c r="J107" s="3">
-        <f t="shared" si="9"/>
-        <v>53.701149425287355</v>
-      </c>
-      <c r="K107" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>52.026726057906458</v>
+      </c>
+      <c r="K107" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>104</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>nike white air force 1 42</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -6041,20 +6267,20 @@
         <v>1.2</v>
       </c>
       <c r="J108" s="3">
-        <f t="shared" si="9"/>
-        <v>53.701149425287355</v>
-      </c>
-      <c r="K108" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>52.026726057906458</v>
+      </c>
+      <c r="K108" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>105</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>nike white air force 1 43</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -6079,20 +6305,20 @@
         <v>1.2</v>
       </c>
       <c r="J109" s="3">
-        <f t="shared" si="9"/>
-        <v>53.701149425287355</v>
-      </c>
-      <c r="K109" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>52.026726057906458</v>
+      </c>
+      <c r="K109" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>106</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>nike white air force 1 44</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -6117,20 +6343,20 @@
         <v>1.2</v>
       </c>
       <c r="J110" s="3">
-        <f t="shared" si="9"/>
-        <v>53.701149425287355</v>
-      </c>
-      <c r="K110" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>52.026726057906458</v>
+      </c>
+      <c r="K110" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>107</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">rayban green round lens gold frame </v>
       </c>
       <c r="C111" s="1" t="s">
@@ -6152,20 +6378,20 @@
         <v>0.125</v>
       </c>
       <c r="J111" s="3">
-        <f t="shared" si="9"/>
-        <v>31.954022988505749</v>
-      </c>
-      <c r="K111" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>30.957683741648104</v>
+      </c>
+      <c r="K111" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>108</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">rayban green black clubmaster </v>
       </c>
       <c r="C112" s="1" t="s">
@@ -6187,10 +6413,10 @@
         <v>0.15</v>
       </c>
       <c r="J112" s="3">
-        <f t="shared" si="9"/>
-        <v>30.620689655172416</v>
-      </c>
-      <c r="K112" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>29.665924276169264</v>
+      </c>
+      <c r="K112" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6199,7 +6425,7 @@
         <v>109</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">rayban green black round clubmaster </v>
       </c>
       <c r="C113" s="1" t="s">
@@ -6221,20 +6447,20 @@
         <v>0.15</v>
       </c>
       <c r="J113" s="3">
-        <f t="shared" si="9"/>
-        <v>46.252873563218394</v>
-      </c>
-      <c r="K113" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>44.810690423162576</v>
+      </c>
+      <c r="K113" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114">
-        <f t="shared" ref="A114:A118" si="10">A113+1</f>
+        <f t="shared" ref="A114:A118" si="11">A113+1</f>
         <v>110</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" ref="B114:B119" si="11">CONCATENATE(D114, " ", E114, " ", F114, " ", G114)</f>
+        <f t="shared" ref="B114:B119" si="12">CONCATENATE(D114, " ", E114, " ", F114, " ", G114)</f>
         <v xml:space="preserve">rayban green aviator </v>
       </c>
       <c r="C114" s="1" t="s">
@@ -6256,20 +6482,20 @@
         <v>0.125</v>
       </c>
       <c r="J114" s="3">
-        <f t="shared" si="9"/>
-        <v>28.96551724137931</v>
-      </c>
-      <c r="K114" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>28.062360801781736</v>
+      </c>
+      <c r="K114" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>111</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">tommy hilfiger white baseball cap </v>
       </c>
       <c r="C115" s="1" t="s">
@@ -6291,20 +6517,20 @@
         <v>0.09</v>
       </c>
       <c r="J115" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6482758620689664</v>
-      </c>
-      <c r="K115" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>6.4409799554565694</v>
+      </c>
+      <c r="K115" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">tommy hilfiger navy baseball cap </v>
       </c>
       <c r="C116" s="1" t="s">
@@ -6326,20 +6552,20 @@
         <v>0.09</v>
       </c>
       <c r="J116" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6482758620689664</v>
-      </c>
-      <c r="K116" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>6.4409799554565694</v>
+      </c>
+      <c r="K116" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">tommy hilfiger black baseball cap </v>
       </c>
       <c r="C117" s="1" t="s">
@@ -6361,20 +6587,20 @@
         <v>0.09</v>
       </c>
       <c r="J117" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6482758620689664</v>
-      </c>
-      <c r="K117" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>6.4409799554565694</v>
+      </c>
+      <c r="K117" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>114</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">tommy hilfiger pink baseball cap </v>
       </c>
       <c r="C118" s="1" t="s">
@@ -6396,20 +6622,20 @@
         <v>0.09</v>
       </c>
       <c r="J118" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6482758620689664</v>
-      </c>
-      <c r="K118" s="13" t="s">
+        <f t="shared" si="10"/>
+        <v>6.4409799554565694</v>
+      </c>
+      <c r="K118" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119">
-        <f t="shared" ref="A119:A123" si="12">A118+1</f>
+        <f t="shared" ref="A119:A123" si="13">A118+1</f>
         <v>115</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>lululemon black legging s</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -6434,20 +6660,20 @@
         <v>0.2</v>
       </c>
       <c r="J119" s="3">
-        <f t="shared" si="9"/>
-        <v>19.448275862068968</v>
-      </c>
-      <c r="K119" s="14" t="s">
-        <v>117</v>
+        <f t="shared" si="10"/>
+        <v>18.841870824053451</v>
+      </c>
+      <c r="K119" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>116</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" ref="B120:B123" si="13">CONCATENATE(D120, " ", E120, " ", F120, " ", G120)</f>
+        <f t="shared" ref="B120:B123" si="14">CONCATENATE(D120, " ", E120, " ", F120, " ", G120)</f>
         <v>lululemon black legging m</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -6472,20 +6698,20 @@
         <v>0.2</v>
       </c>
       <c r="J120" s="3">
-        <f t="shared" si="9"/>
-        <v>19.448275862068968</v>
-      </c>
-      <c r="K120" s="14" t="s">
-        <v>117</v>
+        <f t="shared" si="10"/>
+        <v>18.841870824053451</v>
+      </c>
+      <c r="K120" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>117</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>lululemon royal blue legging s</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -6510,20 +6736,20 @@
         <v>0.2</v>
       </c>
       <c r="J121" s="3">
-        <f t="shared" si="9"/>
-        <v>19.448275862068968</v>
-      </c>
-      <c r="K121" s="14" t="s">
-        <v>117</v>
+        <f t="shared" si="10"/>
+        <v>18.841870824053451</v>
+      </c>
+      <c r="K121" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>118</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>lululemon royal blue legging m</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -6548,20 +6774,20 @@
         <v>0.2</v>
       </c>
       <c r="J122" s="3">
-        <f t="shared" si="9"/>
-        <v>19.448275862068968</v>
-      </c>
-      <c r="K122" s="14" t="s">
-        <v>117</v>
+        <f t="shared" si="10"/>
+        <v>18.841870824053451</v>
+      </c>
+      <c r="K122" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>119</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>lululemon aoki ash legging s</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -6586,20 +6812,20 @@
         <v>0.2</v>
       </c>
       <c r="J123" s="3">
-        <f t="shared" si="9"/>
-        <v>19.448275862068968</v>
-      </c>
-      <c r="K123" s="14" t="s">
-        <v>117</v>
+        <f t="shared" si="10"/>
+        <v>18.841870824053451</v>
+      </c>
+      <c r="K123" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124">
-        <f t="shared" ref="A124:A129" si="14">A123+1</f>
+        <f t="shared" ref="A124:A129" si="15">A123+1</f>
         <v>120</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" ref="B124:B127" si="15">CONCATENATE(D124, " ", E124, " ", F124, " ", G124)</f>
+        <f t="shared" ref="B124:B127" si="16">CONCATENATE(D124, " ", E124, " ", F124, " ", G124)</f>
         <v>lululemon aoki ash legging m</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -6624,20 +6850,20 @@
         <v>0.2</v>
       </c>
       <c r="J124" s="3">
-        <f t="shared" si="9"/>
-        <v>19.448275862068968</v>
-      </c>
-      <c r="K124" s="14" t="s">
-        <v>117</v>
+        <f t="shared" si="10"/>
+        <v>18.841870824053451</v>
+      </c>
+      <c r="K124" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>121</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>lululemon gray gamma legging s</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -6662,20 +6888,20 @@
         <v>0.2</v>
       </c>
       <c r="J125" s="3">
-        <f t="shared" si="9"/>
-        <v>19.448275862068968</v>
-      </c>
-      <c r="K125" s="14" t="s">
-        <v>117</v>
+        <f t="shared" si="10"/>
+        <v>18.841870824053451</v>
+      </c>
+      <c r="K125" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>122</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>lululemon gray gamma legging m</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -6700,20 +6926,20 @@
         <v>0.2</v>
       </c>
       <c r="J126" s="3">
-        <f t="shared" si="9"/>
-        <v>19.448275862068968</v>
-      </c>
-      <c r="K126" s="14" t="s">
-        <v>117</v>
+        <f t="shared" si="10"/>
+        <v>18.841870824053451</v>
+      </c>
+      <c r="K126" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>123</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>frank ocean white blonded s</v>
       </c>
       <c r="C127" t="s">
@@ -6738,20 +6964,20 @@
         <v>0.2</v>
       </c>
       <c r="J127" s="3">
-        <f t="shared" si="9"/>
-        <v>21.287356321839084</v>
-      </c>
-      <c r="K127" s="13" t="s">
-        <v>116</v>
+        <f t="shared" si="10"/>
+        <v>20.623608017817372</v>
+      </c>
+      <c r="K127" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>124</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" ref="B128:B130" si="16">CONCATENATE(D128, " ", E128, " ", F128, " ", G128)</f>
+        <f t="shared" ref="B128:B130" si="17">CONCATENATE(D128, " ", E128, " ", F128, " ", G128)</f>
         <v>frank ocean white blonded m</v>
       </c>
       <c r="C128" t="s">
@@ -6776,20 +7002,20 @@
         <v>0.2</v>
       </c>
       <c r="J128" s="3">
-        <f t="shared" si="9"/>
-        <v>21.287356321839084</v>
-      </c>
-      <c r="K128" s="13" t="s">
-        <v>116</v>
+        <f t="shared" si="10"/>
+        <v>20.623608017817372</v>
+      </c>
+      <c r="K128" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>125</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>frank ocean white blonded l</v>
       </c>
       <c r="C129" t="s">
@@ -6814,11 +7040,11 @@
         <v>0.2</v>
       </c>
       <c r="J129" s="3">
-        <f t="shared" si="9"/>
-        <v>21.287356321839084</v>
-      </c>
-      <c r="K129" s="13" t="s">
-        <v>116</v>
+        <f t="shared" si="10"/>
+        <v>20.623608017817372</v>
+      </c>
+      <c r="K129" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6827,7 +7053,7 @@
         <v>126</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>frank ocean white blonded xl</v>
       </c>
       <c r="C130" t="s">
@@ -6852,20 +7078,20 @@
         <v>0.2</v>
       </c>
       <c r="J130" s="3">
-        <f t="shared" si="9"/>
-        <v>21.287356321839084</v>
-      </c>
-      <c r="K130" s="13" t="s">
-        <v>116</v>
+        <f t="shared" si="10"/>
+        <v>20.623608017817372</v>
+      </c>
+      <c r="K130" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131">
-        <f t="shared" ref="A131:A134" si="17">A130+1</f>
+        <f t="shared" ref="A131:A134" si="18">A130+1</f>
         <v>127</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" ref="B131:B133" si="18">CONCATENATE(D131, " ", E131, " ", F131, " ", G131)</f>
+        <f t="shared" ref="B131:B133" si="19">CONCATENATE(D131, " ", E131, " ", F131, " ", G131)</f>
         <v>astroworld black wish s</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -6890,20 +7116,20 @@
         <v>0.7</v>
       </c>
       <c r="J131" s="3">
-        <f t="shared" si="9"/>
-        <v>65.885057471264361</v>
-      </c>
-      <c r="K131" s="14" t="s">
-        <v>118</v>
+        <f t="shared" si="10"/>
+        <v>63.830734966592424</v>
+      </c>
+      <c r="K131" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>128</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" ref="B132" si="19">CONCATENATE(D132, " ", E132, " ", F132, " ", G132)</f>
+        <f t="shared" ref="B132" si="20">CONCATENATE(D132, " ", E132, " ", F132, " ", G132)</f>
         <v>astroworld black wish m</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -6928,20 +7154,20 @@
         <v>0.7</v>
       </c>
       <c r="J132" s="3">
-        <f t="shared" si="9"/>
-        <v>65.885057471264361</v>
-      </c>
-      <c r="K132" s="14" t="s">
-        <v>118</v>
+        <f t="shared" si="10"/>
+        <v>63.830734966592424</v>
+      </c>
+      <c r="K132" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>129</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>astroworld black tour m</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -6966,20 +7192,20 @@
         <v>0.7</v>
       </c>
       <c r="J133" s="3">
-        <f t="shared" ref="J133:J139" si="20">H133/$L$2 + I133*(88/$L$2)</f>
-        <v>53.011494252873568</v>
-      </c>
-      <c r="K133" s="14" t="s">
-        <v>119</v>
+        <f t="shared" ref="J133:J139" si="21">H133/$L$2 + I133*(88/$L$2)</f>
+        <v>51.358574610244986</v>
+      </c>
+      <c r="K133" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>130</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" ref="B134:B140" si="21">CONCATENATE(D134, " ", E134, " ", F134, " ", G134)</f>
+        <f t="shared" ref="B134:B148" si="22">CONCATENATE(D134, " ", E134, " ", F134, " ", G134)</f>
         <v>astroworld black tour l</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -7004,11 +7230,11 @@
         <v>0.7</v>
       </c>
       <c r="J134" s="3">
-        <f t="shared" si="20"/>
-        <v>53.011494252873568</v>
-      </c>
-      <c r="K134" s="14" t="s">
-        <v>119</v>
+        <f t="shared" si="21"/>
+        <v>51.358574610244986</v>
+      </c>
+      <c r="K134" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7016,7 +7242,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>adidas parlay 4 40</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -7026,7 +7252,7 @@
         <v>11</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F135" s="1">
         <v>4</v>
@@ -7041,22 +7267,22 @@
         <v>0.9</v>
       </c>
       <c r="J135" s="3">
-        <f t="shared" si="20"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K135" s="14" t="s">
-        <v>114</v>
+        <f t="shared" si="21"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K135" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136">
-        <f t="shared" ref="A136:A139" si="22">A135+1</f>
+        <f t="shared" ref="A136:A139" si="23">A135+1</f>
         <v>135</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>adidas parlay 4 41</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -7066,7 +7292,7 @@
         <v>11</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F136" s="1">
         <v>4</v>
@@ -7081,22 +7307,22 @@
         <v>0.9</v>
       </c>
       <c r="J136" s="3">
-        <f t="shared" si="20"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K136" s="14" t="s">
-        <v>114</v>
+        <f t="shared" si="21"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K136" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
     </row>
     <row r="137" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137">
+        <f t="shared" si="23"/>
+        <v>136</v>
+      </c>
+      <c r="B137" t="str">
         <f t="shared" si="22"/>
-        <v>136</v>
-      </c>
-      <c r="B137" t="str">
-        <f t="shared" si="21"/>
         <v>adidas parlay 4 42</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -7106,7 +7332,7 @@
         <v>11</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F137" s="1">
         <v>4</v>
@@ -7121,22 +7347,22 @@
         <v>0.9</v>
       </c>
       <c r="J137" s="3">
-        <f t="shared" si="20"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K137" s="14" t="s">
-        <v>114</v>
+        <f t="shared" si="21"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K137" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
     </row>
     <row r="138" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138">
+        <f t="shared" si="23"/>
+        <v>137</v>
+      </c>
+      <c r="B138" t="str">
         <f t="shared" si="22"/>
-        <v>137</v>
-      </c>
-      <c r="B138" t="str">
-        <f t="shared" si="21"/>
         <v>adidas parlay 4 43</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -7146,7 +7372,7 @@
         <v>11</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F138" s="1">
         <v>4</v>
@@ -7161,22 +7387,22 @@
         <v>0.9</v>
       </c>
       <c r="J138" s="3">
-        <f t="shared" si="20"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K138" s="14" t="s">
-        <v>114</v>
+        <f t="shared" si="21"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K138" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
     </row>
     <row r="139" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139">
+        <f t="shared" si="23"/>
+        <v>138</v>
+      </c>
+      <c r="B139" t="str">
         <f t="shared" si="22"/>
-        <v>138</v>
-      </c>
-      <c r="B139" t="str">
-        <f t="shared" si="21"/>
         <v>adidas parlay 4 44</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -7186,7 +7412,7 @@
         <v>11</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F139" s="1">
         <v>4</v>
@@ -7201,167 +7427,422 @@
         <v>0.9</v>
       </c>
       <c r="J139" s="3">
-        <f t="shared" si="20"/>
-        <v>63.264367816091962</v>
-      </c>
-      <c r="K139" s="14" t="s">
-        <v>114</v>
+        <f t="shared" si="21"/>
+        <v>61.29175946547884</v>
+      </c>
+      <c r="K139" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
     </row>
     <row r="140" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="20">
+      <c r="A140" s="19">
         <v>139</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">goyard brown cardholder </v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D140" s="21" t="s">
+      <c r="D140" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E140" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E140" s="21" t="s">
+      <c r="F140" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="F140" s="21" t="s">
+      <c r="G140" s="20"/>
+      <c r="H140" s="20">
+        <v>35</v>
+      </c>
+      <c r="I140" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="J140" s="21">
+        <f>H140/$L$2 + I140*(88/$L$2)</f>
+        <v>9.5590200445434288</v>
+      </c>
+      <c r="K140" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="G140" s="21"/>
-      <c r="H140" s="21">
-        <v>35</v>
-      </c>
-      <c r="I140" s="21">
-        <v>0.09</v>
-      </c>
-      <c r="J140" s="22">
-        <f>H140/$L$2 + I140*(88/$L$2)</f>
-        <v>9.8666666666666671</v>
-      </c>
-      <c r="K140" s="23" t="s">
-        <v>131</v>
       </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="20">
-        <f>A140+1</f>
+      <c r="A141">
+        <f t="shared" ref="A141:A148" si="24">A140+1</f>
         <v>140</v>
       </c>
-      <c r="B141" s="20" t="str">
-        <f>CONCATENATE(D141, " ", E141, " ", F141, " ", G141)</f>
-        <v xml:space="preserve">   </v>
-      </c>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="21"/>
-      <c r="I141" s="21"/>
-      <c r="J141" s="22">
+      <c r="B141" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">goyard black cardholder </v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E141" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20">
+        <v>35</v>
+      </c>
+      <c r="I141" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="J141" s="21">
         <f>H141/$L$2 + I141*(88/$L$2)</f>
-        <v>0</v>
-      </c>
-      <c r="K141" s="1"/>
+        <v>9.5590200445434288</v>
+      </c>
+      <c r="K141" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
     </row>
     <row r="142" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K142" s="1"/>
+      <c r="A142">
+        <f t="shared" si="24"/>
+        <v>141</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> gray fog style xl</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F142" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G142" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" s="20">
+        <v>25</v>
+      </c>
+      <c r="I142" s="20">
+        <v>0.17</v>
+      </c>
+      <c r="J142" s="21">
+        <f>H142/$L$2 + I142*(88/$L$2)</f>
+        <v>8.8997772828507795</v>
+      </c>
+      <c r="K142" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
     </row>
     <row r="143" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K143" s="1"/>
+      <c r="A143">
+        <f t="shared" si="24"/>
+        <v>142</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve"> black fog style xl</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F143" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G143" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H143" s="20">
+        <v>25</v>
+      </c>
+      <c r="I143" s="20">
+        <v>0.17</v>
+      </c>
+      <c r="J143" s="21">
+        <f>H143/$L$2 + I143*(88/$L$2)</f>
+        <v>8.8997772828507795</v>
+      </c>
+      <c r="K143" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
     </row>
     <row r="144" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K144" s="1"/>
+      <c r="A144">
+        <f t="shared" si="24"/>
+        <v>143</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="22"/>
+        <v>cdg cream low crazy hearts 40</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G144" s="1">
+        <v>40</v>
+      </c>
+      <c r="H144" s="24">
+        <v>200</v>
+      </c>
+      <c r="I144" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="J144" s="3">
+        <f t="shared" ref="J144:J148" si="25">H144/$L$2 + I144*(88/$L$2)</f>
+        <v>68.062360801781736</v>
+      </c>
+      <c r="K144" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K145" s="1"/>
+    <row r="145" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <f t="shared" si="24"/>
+        <v>144</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="22"/>
+        <v>cdg cream low crazy hearts 41</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G145" s="1">
+        <v>41</v>
+      </c>
+      <c r="H145" s="24">
+        <v>200</v>
+      </c>
+      <c r="I145" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="J145" s="3">
+        <f t="shared" si="25"/>
+        <v>68.062360801781736</v>
+      </c>
+      <c r="K145" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K146" s="1"/>
+    <row r="146" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <f t="shared" si="24"/>
+        <v>145</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="22"/>
+        <v>cdg cream low crazy hearts 42</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G146" s="1">
+        <v>42</v>
+      </c>
+      <c r="H146" s="24">
+        <v>200</v>
+      </c>
+      <c r="I146" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="J146" s="3">
+        <f t="shared" si="25"/>
+        <v>68.062360801781736</v>
+      </c>
+      <c r="K146" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
     </row>
-    <row r="147" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K147" s="1"/>
+    <row r="147" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <f t="shared" si="24"/>
+        <v>146</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="22"/>
+        <v>cdg cream low crazy hearts 43</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G147" s="1">
+        <v>43</v>
+      </c>
+      <c r="H147" s="24">
+        <v>200</v>
+      </c>
+      <c r="I147" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="J147" s="3">
+        <f t="shared" si="25"/>
+        <v>68.062360801781736</v>
+      </c>
+      <c r="K147" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
     </row>
-    <row r="148" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K148" s="1"/>
+    <row r="148" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <f t="shared" si="24"/>
+        <v>147</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="22"/>
+        <v>cdg cream low crazy hearts 44</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G148" s="1">
+        <v>44</v>
+      </c>
+      <c r="H148" s="24">
+        <v>200</v>
+      </c>
+      <c r="I148" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="J148" s="3">
+        <f t="shared" si="25"/>
+        <v>68.062360801781736</v>
+      </c>
+      <c r="K148" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
     </row>
-    <row r="153" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
     </row>
-    <row r="154" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
     </row>
-    <row r="155" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
     </row>
-    <row r="156" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
     </row>
-    <row r="157" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
     </row>
-    <row r="158" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
     </row>
-    <row r="159" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
     </row>
-    <row r="160" spans="11:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
@@ -12200,7 +12681,7 @@
         <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -12208,14 +12689,14 @@
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="e">
         <f>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="e">
@@ -13315,8 +13796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A2DDF1-7DF8-49E1-8788-877E2A282819}">
   <dimension ref="A1:Q1116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J139" sqref="J139"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13372,11 +13853,11 @@
       <c r="N1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -13406,13 +13887,13 @@
       <c r="H2" s="2">
         <v>0.21</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <f>G2/'Item List'!$L$2 + H2*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K2">
         <f>'WH LT Total'!E2+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L2">
         <f>ROUNDUP((J2/30 * K2),0)</f>
@@ -13458,13 +13939,13 @@
       <c r="H3" s="2">
         <v>0.21</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <f>G3/'Item List'!$L$2 + H3*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K3">
         <f>'WH LT Total'!E3+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L66" si="0">ROUNDUP((J3/30 * K3),0)</f>
@@ -13510,13 +13991,13 @@
       <c r="H4" s="2">
         <v>0.21</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <f>G4/'Item List'!$L$2 + H4*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K4">
         <f>'WH LT Total'!E4+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
@@ -13562,13 +14043,13 @@
       <c r="H5" s="2">
         <v>0.21</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <f>G5/'Item List'!$L$2 + H5*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K5">
         <f>'WH LT Total'!E5+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -13614,13 +14095,13 @@
       <c r="H6" s="2">
         <v>0.21</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f>G6/'Item List'!$L$2 + H6*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K6">
         <f>'WH LT Total'!E6+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -13666,13 +14147,13 @@
       <c r="H7" s="2">
         <v>0.21</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f>G7/'Item List'!$L$2 + H7*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K7">
         <f>'WH LT Total'!E7+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
@@ -13718,13 +14199,13 @@
       <c r="H8" s="2">
         <v>0.21</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <f>G8/'Item List'!$L$2 + H8*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K8">
         <f>'WH LT Total'!E8+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
@@ -13770,13 +14251,13 @@
       <c r="H9" s="2">
         <v>0.21</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <f>G9/'Item List'!$L$2 + H9*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K9">
         <f>'WH LT Total'!E9+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
@@ -13822,13 +14303,13 @@
       <c r="H10" s="2">
         <v>0.21</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <f>G10/'Item List'!$L$2 + H10*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K10">
         <f>'WH LT Total'!E10+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
@@ -13874,13 +14355,13 @@
       <c r="H11" s="2">
         <v>0.21</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <f>G11/'Item List'!$L$2 + H11*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K11">
         <f>'WH LT Total'!E11+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
@@ -13926,13 +14407,13 @@
       <c r="H12" s="2">
         <v>0.21</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <f>G12/'Item List'!$L$2 + H12*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K12">
         <f>'WH LT Total'!E12+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
@@ -13978,13 +14459,13 @@
       <c r="H13" s="2">
         <v>0.21</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <f>G13/'Item List'!$L$2 + H13*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K13">
         <f>'WH LT Total'!E13+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
@@ -14030,13 +14511,13 @@
       <c r="H14" s="2">
         <v>0.21</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <f>G14/'Item List'!$L$2 + H14*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K14">
         <f>'WH LT Total'!E14+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
@@ -14082,13 +14563,13 @@
       <c r="H15" s="2">
         <v>0.21</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <f>G15/'Item List'!$L$2 + H15*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K15">
         <f>'WH LT Total'!E15+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
@@ -14134,13 +14615,13 @@
       <c r="H16" s="2">
         <v>0.21</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <f>G16/'Item List'!$L$2 + H16*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K16">
         <f>'WH LT Total'!E16+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
@@ -14186,13 +14667,13 @@
       <c r="H17" s="2">
         <v>0.21</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <f>G17/'Item List'!$L$2 + H17*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K17">
         <f>'WH LT Total'!E17+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
@@ -14238,13 +14719,13 @@
       <c r="H18" s="2">
         <v>0.21</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <f>G18/'Item List'!$L$2 + H18*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K18">
         <f>'WH LT Total'!E18+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
@@ -14290,13 +14771,13 @@
       <c r="H19" s="2">
         <v>0.21</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <f>G19/'Item List'!$L$2 + H19*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K19">
         <f>'WH LT Total'!E19+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
@@ -14342,13 +14823,13 @@
       <c r="H20" s="2">
         <v>0.21</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <f>G20/'Item List'!$L$2 + H20*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K20">
         <f>'WH LT Total'!E20+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
@@ -14394,13 +14875,13 @@
       <c r="H21" s="2">
         <v>0.21</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <f>G21/'Item List'!$L$2 + H21*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K21">
         <f>'WH LT Total'!E21+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
@@ -14446,13 +14927,13 @@
       <c r="H22" s="2">
         <v>0.21</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <f>G22/'Item List'!$L$2 + H22*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K22">
         <f>'WH LT Total'!E22+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
@@ -14498,13 +14979,13 @@
       <c r="H23" s="2">
         <v>0.21</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <f>G23/'Item List'!$L$2 + H23*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K23">
         <f>'WH LT Total'!E23+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
@@ -14550,13 +15031,13 @@
       <c r="H24" s="2">
         <v>0.21</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <f>G24/'Item List'!$L$2 + H24*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K24">
         <f>'WH LT Total'!E24+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
@@ -14602,13 +15083,13 @@
       <c r="H25" s="2">
         <v>0.21</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <f>G25/'Item List'!$L$2 + H25*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K25">
         <f>'WH LT Total'!E25+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
@@ -14654,13 +15135,13 @@
       <c r="H26" s="2">
         <v>0.21</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <f>G26/'Item List'!$L$2 + H26*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K26">
         <f>'WH LT Total'!E26+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
@@ -14706,13 +15187,13 @@
       <c r="H27" s="2">
         <v>0.21</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <f>G27/'Item List'!$L$2 + H27*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K27">
         <f>'WH LT Total'!E27+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
@@ -14758,13 +15239,13 @@
       <c r="H28" s="2">
         <v>0.21</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <f>G28/'Item List'!$L$2 + H28*(88/'Item List'!$L$2)</f>
-        <v>12.983908045977012</v>
+        <v>12.579064587973273</v>
       </c>
       <c r="K28">
         <f>'WH LT Total'!E28+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
@@ -14810,13 +15291,13 @@
       <c r="H29" s="2">
         <v>0.21</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="11">
         <f>G29/'Item List'!$L$2 + H29*(88/'Item List'!$L$2)</f>
-        <v>14.593103448275862</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="K29">
         <f>'WH LT Total'!E29+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
@@ -14862,13 +15343,13 @@
       <c r="H30" s="2">
         <v>0.21</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <f>G30/'Item List'!$L$2 + H30*(88/'Item List'!$L$2)</f>
-        <v>14.593103448275862</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="K30">
         <f>'WH LT Total'!E30+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
@@ -14914,13 +15395,13 @@
       <c r="H31" s="2">
         <v>0.21</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <f>G31/'Item List'!$L$2 + H31*(88/'Item List'!$L$2)</f>
-        <v>14.593103448275862</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="K31">
         <f>'WH LT Total'!E31+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
@@ -14966,13 +15447,13 @@
       <c r="H32" s="2">
         <v>0.21</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <f>G32/'Item List'!$L$2 + H32*(88/'Item List'!$L$2)</f>
-        <v>14.593103448275862</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="K32">
         <f>'WH LT Total'!E32+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
@@ -15018,13 +15499,13 @@
       <c r="H33" s="2">
         <v>0.21</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="11">
         <f>G33/'Item List'!$L$2 + H33*(88/'Item List'!$L$2)</f>
-        <v>14.593103448275862</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="K33">
         <f>'WH LT Total'!E33+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
@@ -15070,13 +15551,13 @@
       <c r="H34" s="2">
         <v>0.21</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <f>G34/'Item List'!$L$2 + H34*(88/'Item List'!$L$2)</f>
-        <v>14.593103448275862</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="K34">
         <f>'WH LT Total'!E34+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
@@ -15122,13 +15603,13 @@
       <c r="H35" s="2">
         <v>0.21</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="11">
         <f>G35/'Item List'!$L$2 + H35*(88/'Item List'!$L$2)</f>
-        <v>14.593103448275862</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="K35">
         <f>'WH LT Total'!E35+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
@@ -15174,13 +15655,13 @@
       <c r="H36" s="2">
         <v>0.21</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="11">
         <f>G36/'Item List'!$L$2 + H36*(88/'Item List'!$L$2)</f>
-        <v>14.593103448275862</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="K36">
         <f>'WH LT Total'!E36+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
@@ -15226,13 +15707,13 @@
       <c r="H37" s="2">
         <v>0.21</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="11">
         <f>G37/'Item List'!$L$2 + H37*(88/'Item List'!$L$2)</f>
-        <v>14.593103448275862</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="K37">
         <f>'WH LT Total'!E37+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L37">
         <f t="shared" si="0"/>
@@ -15278,13 +15759,13 @@
       <c r="H38" s="2">
         <v>0.21</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="11">
         <f>G38/'Item List'!$L$2 + H38*(88/'Item List'!$L$2)</f>
-        <v>14.593103448275862</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="K38">
         <f>'WH LT Total'!E38+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
@@ -15330,13 +15811,13 @@
       <c r="H39" s="2">
         <v>0.21</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="11">
         <f>G39/'Item List'!$L$2 + H39*(88/'Item List'!$L$2)</f>
-        <v>14.593103448275862</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="K39">
         <f>'WH LT Total'!E39+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
@@ -15382,13 +15863,13 @@
       <c r="H40" s="2">
         <v>0.21</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="11">
         <f>G40/'Item List'!$L$2 + H40*(88/'Item List'!$L$2)</f>
-        <v>14.593103448275862</v>
+        <v>14.138084632516703</v>
       </c>
       <c r="K40">
         <f>'WH LT Total'!E40+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
@@ -15434,13 +15915,13 @@
       <c r="H41" s="5">
         <v>0.17</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="11">
         <f>G41/'Item List'!$L$2 + H41*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K41">
         <f>'WH LT Total'!E41+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
@@ -15486,13 +15967,13 @@
       <c r="H42" s="5">
         <v>0.17</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="11">
         <f>G42/'Item List'!$L$2 + H42*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K42">
         <f>'WH LT Total'!E42+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
@@ -15538,13 +16019,13 @@
       <c r="H43" s="5">
         <v>0.17</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="11">
         <f>G43/'Item List'!$L$2 + H43*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K43">
         <f>'WH LT Total'!E43+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
@@ -15590,13 +16071,13 @@
       <c r="H44" s="5">
         <v>0.17</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="11">
         <f>G44/'Item List'!$L$2 + H44*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K44">
         <f>'WH LT Total'!E44+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
@@ -15642,13 +16123,13 @@
       <c r="H45" s="5">
         <v>0.17</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="11">
         <f>G45/'Item List'!$L$2 + H45*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K45">
         <f>'WH LT Total'!E45+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
@@ -15694,13 +16175,13 @@
       <c r="H46" s="5">
         <v>0.17</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <f>G46/'Item List'!$L$2 + H46*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K46">
         <f>'WH LT Total'!E46+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
@@ -15746,13 +16227,13 @@
       <c r="H47" s="5">
         <v>0.17</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="11">
         <f>G47/'Item List'!$L$2 + H47*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K47">
         <f>'WH LT Total'!E47+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
@@ -15798,13 +16279,13 @@
       <c r="H48" s="5">
         <v>0.17</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="11">
         <f>G48/'Item List'!$L$2 + H48*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K48">
         <f>'WH LT Total'!E48+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
@@ -15850,13 +16331,13 @@
       <c r="H49" s="5">
         <v>0.17</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="11">
         <f>G49/'Item List'!$L$2 + H49*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K49">
         <f>'WH LT Total'!E49+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L49">
         <f t="shared" si="0"/>
@@ -15902,13 +16383,13 @@
       <c r="H50" s="5">
         <v>0.17</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="11">
         <f>G50/'Item List'!$L$2 + H50*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K50">
         <f>'WH LT Total'!E50+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L50">
         <f t="shared" si="0"/>
@@ -15954,13 +16435,13 @@
       <c r="H51" s="5">
         <v>0.17</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="11">
         <f>G51/'Item List'!$L$2 + H51*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K51">
         <f>'WH LT Total'!E51+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L51">
         <f t="shared" si="0"/>
@@ -16006,13 +16487,13 @@
       <c r="H52" s="5">
         <v>0.17</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="11">
         <f>G52/'Item List'!$L$2 + H52*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K52">
         <f>'WH LT Total'!E52+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L52">
         <f t="shared" si="0"/>
@@ -16058,13 +16539,13 @@
       <c r="H53" s="5">
         <v>0.17</v>
       </c>
-      <c r="I53" s="12">
+      <c r="I53" s="11">
         <f>G53/'Item List'!$L$2 + H53*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K53">
         <f>'WH LT Total'!E53+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L53">
         <f t="shared" si="0"/>
@@ -16110,13 +16591,13 @@
       <c r="H54" s="5">
         <v>0.17</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="11">
         <f>G54/'Item List'!$L$2 + H54*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K54">
         <f>'WH LT Total'!E54+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L54">
         <f t="shared" si="0"/>
@@ -16162,13 +16643,13 @@
       <c r="H55" s="5">
         <v>0.17</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I55" s="11">
         <f>G55/'Item List'!$L$2 + H55*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K55">
         <f>'WH LT Total'!E55+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L55">
         <f t="shared" si="0"/>
@@ -16214,13 +16695,13 @@
       <c r="H56" s="5">
         <v>0.17</v>
       </c>
-      <c r="I56" s="12">
+      <c r="I56" s="11">
         <f>G56/'Item List'!$L$2 + H56*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K56">
         <f>'WH LT Total'!E56+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
@@ -16266,13 +16747,13 @@
       <c r="H57" s="5">
         <v>0.17</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="11">
         <f>G57/'Item List'!$L$2 + H57*(88/'Item List'!$L$2)</f>
-        <v>13.508045977011495</v>
+        <v>13.08685968819599</v>
       </c>
       <c r="K57">
         <f>'WH LT Total'!E57+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L57">
         <f>ROUNDUP((J57/30 * K57),0)</f>
@@ -16318,13 +16799,13 @@
       <c r="H58" s="5">
         <v>0.24</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="11">
         <f>G58/'Item List'!$L$2 + H58*(88/'Item List'!$L$2)</f>
-        <v>19.79770114942529</v>
+        <v>19.180400890868597</v>
       </c>
       <c r="K58">
         <f>'WH LT Total'!E58+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
@@ -16370,13 +16851,13 @@
       <c r="H59" s="5">
         <v>0.24</v>
       </c>
-      <c r="I59" s="12">
+      <c r="I59" s="11">
         <f>G59/'Item List'!$L$2 + H59*(88/'Item List'!$L$2)</f>
-        <v>19.79770114942529</v>
+        <v>19.180400890868597</v>
       </c>
       <c r="K59">
         <f>'WH LT Total'!E59+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L59">
         <f t="shared" si="0"/>
@@ -16422,13 +16903,13 @@
       <c r="H60" s="5">
         <v>0.24</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="11">
         <f>G60/'Item List'!$L$2 + H60*(88/'Item List'!$L$2)</f>
-        <v>19.79770114942529</v>
+        <v>19.180400890868597</v>
       </c>
       <c r="K60">
         <f>'WH LT Total'!E60+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L60">
         <f t="shared" si="0"/>
@@ -16474,13 +16955,13 @@
       <c r="H61" s="5">
         <v>0.24</v>
       </c>
-      <c r="I61" s="12">
+      <c r="I61" s="11">
         <f>G61/'Item List'!$L$2 + H61*(88/'Item List'!$L$2)</f>
-        <v>19.79770114942529</v>
+        <v>19.180400890868597</v>
       </c>
       <c r="K61">
         <f>'WH LT Total'!E61+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L61">
         <f t="shared" si="0"/>
@@ -16526,13 +17007,13 @@
       <c r="H62" s="5">
         <v>0.24</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I62" s="11">
         <f>G62/'Item List'!$L$2 + H62*(88/'Item List'!$L$2)</f>
-        <v>19.79770114942529</v>
+        <v>19.180400890868597</v>
       </c>
       <c r="K62">
         <f>'WH LT Total'!E62+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L62">
         <f t="shared" si="0"/>
@@ -16578,13 +17059,13 @@
       <c r="H63" s="5">
         <v>0.24</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="11">
         <f>G63/'Item List'!$L$2 + H63*(88/'Item List'!$L$2)</f>
-        <v>19.79770114942529</v>
+        <v>19.180400890868597</v>
       </c>
       <c r="K63">
         <f>'WH LT Total'!E63+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L63">
         <f t="shared" si="0"/>
@@ -16630,13 +17111,13 @@
       <c r="H64" s="5">
         <v>0.24</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="11">
         <f>G64/'Item List'!$L$2 + H64*(88/'Item List'!$L$2)</f>
-        <v>19.79770114942529</v>
+        <v>19.180400890868597</v>
       </c>
       <c r="K64">
         <f>'WH LT Total'!E64+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L64">
         <f t="shared" si="0"/>
@@ -16682,13 +17163,13 @@
       <c r="H65" s="5">
         <v>0.24</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="11">
         <f>G65/'Item List'!$L$2 + H65*(88/'Item List'!$L$2)</f>
-        <v>19.79770114942529</v>
+        <v>19.180400890868597</v>
       </c>
       <c r="K65">
         <f>'WH LT Total'!E65+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L65">
         <f t="shared" si="0"/>
@@ -16734,13 +17215,13 @@
       <c r="H66" s="5">
         <v>0.24</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="11">
         <f>G66/'Item List'!$L$2 + H66*(88/'Item List'!$L$2)</f>
-        <v>19.79770114942529</v>
+        <v>19.180400890868597</v>
       </c>
       <c r="K66">
         <f>'WH LT Total'!E66+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L66">
         <f t="shared" si="0"/>
@@ -16786,13 +17267,13 @@
       <c r="H67" s="5">
         <v>0.2</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="11">
         <f>G67/'Item List'!$L$2 + H67*(88/'Item List'!$L$2)</f>
-        <v>10.712643678160919</v>
+        <v>10.378619153674833</v>
       </c>
       <c r="K67">
         <f>'WH LT Total'!E67+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L67">
         <f t="shared" ref="L67:L130" si="2">ROUNDUP((J67/30 * K67),0)</f>
@@ -16838,13 +17319,13 @@
       <c r="H68" s="5">
         <v>0.2</v>
       </c>
-      <c r="I68" s="12">
+      <c r="I68" s="11">
         <f>G68/'Item List'!$L$2 + H68*(88/'Item List'!$L$2)</f>
-        <v>10.712643678160919</v>
+        <v>10.378619153674833</v>
       </c>
       <c r="K68">
         <f>'WH LT Total'!E68+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L68">
         <f t="shared" si="2"/>
@@ -16890,13 +17371,13 @@
       <c r="H69" s="5">
         <v>0.2</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I69" s="11">
         <f>G69/'Item List'!$L$2 + H69*(88/'Item List'!$L$2)</f>
-        <v>10.712643678160919</v>
+        <v>10.378619153674833</v>
       </c>
       <c r="K69">
         <f>'WH LT Total'!E69+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L69">
         <f t="shared" si="2"/>
@@ -16942,13 +17423,13 @@
       <c r="H70" s="5">
         <v>0.2</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="11">
         <f>G70/'Item List'!$L$2 + H70*(88/'Item List'!$L$2)</f>
-        <v>10.712643678160919</v>
+        <v>10.378619153674833</v>
       </c>
       <c r="K70">
         <f>'WH LT Total'!E70+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L70">
         <f t="shared" si="2"/>
@@ -16994,13 +17475,13 @@
       <c r="H71" s="5">
         <v>0.9</v>
       </c>
-      <c r="I71" s="12">
+      <c r="I71" s="11">
         <f>G71/'Item List'!$L$2 + H71*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K71">
         <f>'WH LT Total'!E71+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L71">
         <f t="shared" si="2"/>
@@ -17046,13 +17527,13 @@
       <c r="H72" s="5">
         <v>0.9</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I72" s="11">
         <f>G72/'Item List'!$L$2 + H72*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K72">
         <f>'WH LT Total'!E72+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L72">
         <f t="shared" si="2"/>
@@ -17098,13 +17579,13 @@
       <c r="H73" s="5">
         <v>0.9</v>
       </c>
-      <c r="I73" s="12">
+      <c r="I73" s="11">
         <f>G73/'Item List'!$L$2 + H73*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K73">
         <f>'WH LT Total'!E73+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L73">
         <f t="shared" si="2"/>
@@ -17150,13 +17631,13 @@
       <c r="H74" s="5">
         <v>0.9</v>
       </c>
-      <c r="I74" s="12">
+      <c r="I74" s="11">
         <f>G74/'Item List'!$L$2 + H74*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K74">
         <f>'WH LT Total'!E74+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L74">
         <f t="shared" si="2"/>
@@ -17202,13 +17683,13 @@
       <c r="H75" s="5">
         <v>0.9</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I75" s="11">
         <f>G75/'Item List'!$L$2 + H75*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K75">
         <f>'WH LT Total'!E75+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L75">
         <f t="shared" si="2"/>
@@ -17254,13 +17735,13 @@
       <c r="H76" s="5">
         <v>0.9</v>
       </c>
-      <c r="I76" s="12">
+      <c r="I76" s="11">
         <f>G76/'Item List'!$L$2 + H76*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K76">
         <f>'WH LT Total'!E76+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L76">
         <f t="shared" si="2"/>
@@ -17306,13 +17787,13 @@
       <c r="H77" s="5">
         <v>0.9</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I77" s="11">
         <f>G77/'Item List'!$L$2 + H77*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K77">
         <f>'WH LT Total'!E77+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L77">
         <f t="shared" si="2"/>
@@ -17358,13 +17839,13 @@
       <c r="H78" s="5">
         <v>0.9</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I78" s="11">
         <f>G78/'Item List'!$L$2 + H78*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K78">
         <f>'WH LT Total'!E78+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L78">
         <f t="shared" si="2"/>
@@ -17410,13 +17891,13 @@
       <c r="H79" s="5">
         <v>0.9</v>
       </c>
-      <c r="I79" s="12">
+      <c r="I79" s="11">
         <f>G79/'Item List'!$L$2 + H79*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K79">
         <f>'WH LT Total'!E79+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L79">
         <f t="shared" si="2"/>
@@ -17462,13 +17943,13 @@
       <c r="H80" s="5">
         <v>0.9</v>
       </c>
-      <c r="I80" s="12">
+      <c r="I80" s="11">
         <f>G80/'Item List'!$L$2 + H80*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K80">
         <f>'WH LT Total'!E80+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L80">
         <f t="shared" si="2"/>
@@ -17514,13 +17995,13 @@
       <c r="H81" s="5">
         <v>0.9</v>
       </c>
-      <c r="I81" s="12">
+      <c r="I81" s="11">
         <f>G81/'Item List'!$L$2 + H81*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K81">
         <f>'WH LT Total'!E81+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L81">
         <f t="shared" si="2"/>
@@ -17566,13 +18047,13 @@
       <c r="H82" s="5">
         <v>0.9</v>
       </c>
-      <c r="I82" s="12">
+      <c r="I82" s="11">
         <f>G82/'Item List'!$L$2 + H82*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K82">
         <f>'WH LT Total'!E82+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L82">
         <f t="shared" si="2"/>
@@ -17618,13 +18099,13 @@
       <c r="H83" s="5">
         <v>0.9</v>
       </c>
-      <c r="I83" s="12">
+      <c r="I83" s="11">
         <f>G83/'Item List'!$L$2 + H83*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K83">
         <f>'WH LT Total'!E83+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L83">
         <f t="shared" si="2"/>
@@ -17670,13 +18151,13 @@
       <c r="H84" s="5">
         <v>0.9</v>
       </c>
-      <c r="I84" s="12">
+      <c r="I84" s="11">
         <f>G84/'Item List'!$L$2 + H84*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K84">
         <f>'WH LT Total'!E84+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L84">
         <f t="shared" si="2"/>
@@ -17722,13 +18203,13 @@
       <c r="H85" s="5">
         <v>0.9</v>
       </c>
-      <c r="I85" s="12">
+      <c r="I85" s="11">
         <f>G85/'Item List'!$L$2 + H85*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K85">
         <f>'WH LT Total'!E85+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L85">
         <f t="shared" si="2"/>
@@ -17774,13 +18255,13 @@
       <c r="H86" s="5">
         <v>1.5</v>
       </c>
-      <c r="I86" s="12">
+      <c r="I86" s="11">
         <f>G86/'Item List'!$L$2 + H86*(88/'Item List'!$L$2)</f>
-        <v>73.563218390804593</v>
+        <v>71.269487750556792</v>
       </c>
       <c r="K86">
         <f>'WH LT Total'!E86+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L86">
         <f t="shared" si="2"/>
@@ -17826,13 +18307,13 @@
       <c r="H87" s="5">
         <v>1.5</v>
       </c>
-      <c r="I87" s="12">
+      <c r="I87" s="11">
         <f>G87/'Item List'!$L$2 + H87*(88/'Item List'!$L$2)</f>
-        <v>73.563218390804593</v>
+        <v>71.269487750556792</v>
       </c>
       <c r="K87">
         <f>'WH LT Total'!E87+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L87">
         <f t="shared" si="2"/>
@@ -17878,13 +18359,13 @@
       <c r="H88" s="5">
         <v>1.5</v>
       </c>
-      <c r="I88" s="12">
+      <c r="I88" s="11">
         <f>G88/'Item List'!$L$2 + H88*(88/'Item List'!$L$2)</f>
-        <v>73.563218390804593</v>
+        <v>71.269487750556792</v>
       </c>
       <c r="K88">
         <f>'WH LT Total'!E88+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L88">
         <f t="shared" si="2"/>
@@ -17930,13 +18411,13 @@
       <c r="H89" s="5">
         <v>1.5</v>
       </c>
-      <c r="I89" s="12">
+      <c r="I89" s="11">
         <f>G89/'Item List'!$L$2 + H89*(88/'Item List'!$L$2)</f>
-        <v>73.563218390804593</v>
+        <v>71.269487750556792</v>
       </c>
       <c r="K89">
         <f>'WH LT Total'!E89+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L89">
         <f t="shared" si="2"/>
@@ -17982,13 +18463,13 @@
       <c r="H90" s="5">
         <v>1.5</v>
       </c>
-      <c r="I90" s="12">
+      <c r="I90" s="11">
         <f>G90/'Item List'!$L$2 + H90*(88/'Item List'!$L$2)</f>
-        <v>73.563218390804593</v>
+        <v>71.269487750556792</v>
       </c>
       <c r="K90">
         <f>'WH LT Total'!E90+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L90">
         <f t="shared" si="2"/>
@@ -18034,13 +18515,13 @@
       <c r="H91" s="5">
         <v>1.5</v>
       </c>
-      <c r="I91" s="12">
+      <c r="I91" s="11">
         <f>G91/'Item List'!$L$2 + H91*(88/'Item List'!$L$2)</f>
-        <v>73.563218390804593</v>
+        <v>71.269487750556792</v>
       </c>
       <c r="K91">
         <f>'WH LT Total'!E91+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L91">
         <f t="shared" si="2"/>
@@ -18086,13 +18567,13 @@
       <c r="H92" s="5">
         <v>1.5</v>
       </c>
-      <c r="I92" s="12">
+      <c r="I92" s="11">
         <f>G92/'Item List'!$L$2 + H92*(88/'Item List'!$L$2)</f>
-        <v>73.563218390804593</v>
+        <v>71.269487750556792</v>
       </c>
       <c r="K92">
         <f>'WH LT Total'!E92+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L92">
         <f t="shared" si="2"/>
@@ -18138,13 +18619,13 @@
       <c r="H93" s="5">
         <v>1.5</v>
       </c>
-      <c r="I93" s="12">
+      <c r="I93" s="11">
         <f>G93/'Item List'!$L$2 + H93*(88/'Item List'!$L$2)</f>
-        <v>73.563218390804593</v>
+        <v>71.269487750556792</v>
       </c>
       <c r="K93">
         <f>'WH LT Total'!E93+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L93">
         <f t="shared" si="2"/>
@@ -18190,13 +18671,13 @@
       <c r="H94" s="5">
         <v>1.5</v>
       </c>
-      <c r="I94" s="12">
+      <c r="I94" s="11">
         <f>G94/'Item List'!$L$2 + H94*(88/'Item List'!$L$2)</f>
-        <v>73.563218390804593</v>
+        <v>71.269487750556792</v>
       </c>
       <c r="K94">
         <f>'WH LT Total'!E94+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L94">
         <f t="shared" si="2"/>
@@ -18242,13 +18723,13 @@
       <c r="H95" s="5">
         <v>1.5</v>
       </c>
-      <c r="I95" s="12">
+      <c r="I95" s="11">
         <f>G95/'Item List'!$L$2 + H95*(88/'Item List'!$L$2)</f>
-        <v>73.563218390804593</v>
+        <v>71.269487750556792</v>
       </c>
       <c r="K95">
         <f>'WH LT Total'!E95+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L95">
         <f t="shared" si="2"/>
@@ -18294,13 +18775,13 @@
       <c r="H96" s="5">
         <v>1.4</v>
       </c>
-      <c r="I96" s="12">
+      <c r="I96" s="11">
         <f>G96/'Item List'!$L$2 + H96*(88/'Item List'!$L$2)</f>
-        <v>71.540229885057471</v>
+        <v>69.309576837416472</v>
       </c>
       <c r="K96">
         <f>'WH LT Total'!E96+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L96">
         <f t="shared" si="2"/>
@@ -18346,13 +18827,13 @@
       <c r="H97" s="5">
         <v>1.4</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="11">
         <f>G97/'Item List'!$L$2 + H97*(88/'Item List'!$L$2)</f>
-        <v>71.540229885057471</v>
+        <v>69.309576837416472</v>
       </c>
       <c r="K97">
         <f>'WH LT Total'!E97+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L97">
         <f t="shared" si="2"/>
@@ -18398,13 +18879,13 @@
       <c r="H98" s="5">
         <v>1.4</v>
       </c>
-      <c r="I98" s="12">
+      <c r="I98" s="11">
         <f>G98/'Item List'!$L$2 + H98*(88/'Item List'!$L$2)</f>
-        <v>71.540229885057471</v>
+        <v>69.309576837416472</v>
       </c>
       <c r="K98">
         <f>'WH LT Total'!E98+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L98">
         <f t="shared" si="2"/>
@@ -18450,13 +18931,13 @@
       <c r="H99" s="5">
         <v>1.4</v>
       </c>
-      <c r="I99" s="12">
+      <c r="I99" s="11">
         <f>G99/'Item List'!$L$2 + H99*(88/'Item List'!$L$2)</f>
-        <v>71.540229885057471</v>
+        <v>69.309576837416472</v>
       </c>
       <c r="K99">
         <f>'WH LT Total'!E99+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L99">
         <f t="shared" si="2"/>
@@ -18502,13 +18983,13 @@
       <c r="H100" s="5">
         <v>1.4</v>
       </c>
-      <c r="I100" s="12">
+      <c r="I100" s="11">
         <f>G100/'Item List'!$L$2 + H100*(88/'Item List'!$L$2)</f>
-        <v>71.540229885057471</v>
+        <v>69.309576837416472</v>
       </c>
       <c r="K100">
         <f>'WH LT Total'!E100+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L100">
         <f t="shared" si="2"/>
@@ -18554,13 +19035,13 @@
       <c r="H101" s="5">
         <v>1.4</v>
       </c>
-      <c r="I101" s="12">
+      <c r="I101" s="11">
         <f>G101/'Item List'!$L$2 + H101*(88/'Item List'!$L$2)</f>
-        <v>71.540229885057471</v>
+        <v>69.309576837416472</v>
       </c>
       <c r="K101">
         <f>'WH LT Total'!E101+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L101">
         <f t="shared" si="2"/>
@@ -18606,13 +19087,13 @@
       <c r="H102" s="5">
         <v>1.4</v>
       </c>
-      <c r="I102" s="12">
+      <c r="I102" s="11">
         <f>G102/'Item List'!$L$2 + H102*(88/'Item List'!$L$2)</f>
-        <v>71.540229885057471</v>
+        <v>69.309576837416472</v>
       </c>
       <c r="K102">
         <f>'WH LT Total'!E102+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L102">
         <f t="shared" si="2"/>
@@ -18658,13 +19139,13 @@
       <c r="H103" s="5">
         <v>1.4</v>
       </c>
-      <c r="I103" s="12">
+      <c r="I103" s="11">
         <f>G103/'Item List'!$L$2 + H103*(88/'Item List'!$L$2)</f>
-        <v>71.540229885057471</v>
+        <v>69.309576837416472</v>
       </c>
       <c r="K103">
         <f>'WH LT Total'!E103+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L103">
         <f t="shared" si="2"/>
@@ -18710,13 +19191,13 @@
       <c r="H104" s="5">
         <v>1.4</v>
       </c>
-      <c r="I104" s="12">
+      <c r="I104" s="11">
         <f>G104/'Item List'!$L$2 + H104*(88/'Item List'!$L$2)</f>
-        <v>71.540229885057471</v>
+        <v>69.309576837416472</v>
       </c>
       <c r="K104">
         <f>'WH LT Total'!E104+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L104">
         <f t="shared" si="2"/>
@@ -18762,13 +19243,13 @@
       <c r="H105" s="5">
         <v>1.4</v>
       </c>
-      <c r="I105" s="12">
+      <c r="I105" s="11">
         <f>G105/'Item List'!$L$2 + H105*(88/'Item List'!$L$2)</f>
-        <v>71.540229885057471</v>
+        <v>69.309576837416472</v>
       </c>
       <c r="K105">
         <f>'WH LT Total'!E105+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L105">
         <f t="shared" si="2"/>
@@ -18814,13 +19295,13 @@
       <c r="H106" s="2">
         <v>1.2</v>
       </c>
-      <c r="I106" s="12">
+      <c r="I106" s="11">
         <f>G106/'Item List'!$L$2 + H106*(88/'Item List'!$L$2)</f>
-        <v>53.701149425287355</v>
+        <v>52.026726057906458</v>
       </c>
       <c r="K106">
         <f>'WH LT Total'!E106+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L106">
         <f t="shared" si="2"/>
@@ -18866,13 +19347,13 @@
       <c r="H107" s="2">
         <v>1.2</v>
       </c>
-      <c r="I107" s="12">
+      <c r="I107" s="11">
         <f>G107/'Item List'!$L$2 + H107*(88/'Item List'!$L$2)</f>
-        <v>53.701149425287355</v>
+        <v>52.026726057906458</v>
       </c>
       <c r="K107">
         <f>'WH LT Total'!E107+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L107">
         <f t="shared" si="2"/>
@@ -18918,13 +19399,13 @@
       <c r="H108" s="2">
         <v>1.2</v>
       </c>
-      <c r="I108" s="12">
+      <c r="I108" s="11">
         <f>G108/'Item List'!$L$2 + H108*(88/'Item List'!$L$2)</f>
-        <v>53.701149425287355</v>
+        <v>52.026726057906458</v>
       </c>
       <c r="K108">
         <f>'WH LT Total'!E108+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L108">
         <f t="shared" ref="L108:L113" si="4">ROUNDUP((J108/30 * K108),0)</f>
@@ -18970,13 +19451,13 @@
       <c r="H109" s="2">
         <v>1.2</v>
       </c>
-      <c r="I109" s="12">
+      <c r="I109" s="11">
         <f>G109/'Item List'!$L$2 + H109*(88/'Item List'!$L$2)</f>
-        <v>53.701149425287355</v>
+        <v>52.026726057906458</v>
       </c>
       <c r="K109">
         <f>'WH LT Total'!E109+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L109">
         <f t="shared" si="4"/>
@@ -19022,13 +19503,13 @@
       <c r="H110" s="2">
         <v>1.2</v>
       </c>
-      <c r="I110" s="12">
+      <c r="I110" s="11">
         <f>G110/'Item List'!$L$2 + H110*(88/'Item List'!$L$2)</f>
-        <v>53.701149425287355</v>
+        <v>52.026726057906458</v>
       </c>
       <c r="K110">
         <f>'WH LT Total'!E110+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L110">
         <f t="shared" si="4"/>
@@ -19074,13 +19555,13 @@
       <c r="H111" s="2">
         <v>0.125</v>
       </c>
-      <c r="I111" s="12">
+      <c r="I111" s="11">
         <f>G111/'Item List'!$L$2 + H111*(88/'Item List'!$L$2)</f>
-        <v>31.954022988505749</v>
+        <v>30.957683741648104</v>
       </c>
       <c r="K111">
         <f>'WH LT Total'!E111+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L111">
         <f t="shared" si="4"/>
@@ -19126,13 +19607,13 @@
       <c r="H112" s="2">
         <v>0.15</v>
       </c>
-      <c r="I112" s="12">
+      <c r="I112" s="11">
         <f>G112/'Item List'!$L$2 + H112*(88/'Item List'!$L$2)</f>
-        <v>30.620689655172416</v>
+        <v>29.665924276169264</v>
       </c>
       <c r="K112">
         <f>'WH LT Total'!E112+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L112">
         <f t="shared" si="4"/>
@@ -19178,13 +19659,13 @@
       <c r="H113" s="2">
         <v>0.15</v>
       </c>
-      <c r="I113" s="12">
+      <c r="I113" s="11">
         <f>G113/'Item List'!$L$2 + H113*(88/'Item List'!$L$2)</f>
-        <v>46.252873563218394</v>
+        <v>44.810690423162576</v>
       </c>
       <c r="K113">
         <f>'WH LT Total'!E113+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L113">
         <f t="shared" si="4"/>
@@ -19230,13 +19711,13 @@
       <c r="H114" s="2">
         <v>0.125</v>
       </c>
-      <c r="I114" s="12">
+      <c r="I114" s="11">
         <f>G114/'Item List'!$L$2 + H114*(88/'Item List'!$L$2)</f>
-        <v>28.96551724137931</v>
+        <v>28.062360801781736</v>
       </c>
       <c r="K114">
         <f>'WH LT Total'!E114+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L114">
         <f t="shared" si="2"/>
@@ -19282,13 +19763,13 @@
       <c r="H115" s="2">
         <v>0.09</v>
       </c>
-      <c r="I115" s="12">
+      <c r="I115" s="11">
         <f>G115/'Item List'!$L$2 + H115*(88/'Item List'!$L$2)</f>
-        <v>6.6482758620689664</v>
+        <v>6.4409799554565694</v>
       </c>
       <c r="K115">
         <f>'WH LT Total'!E115+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L115">
         <f t="shared" si="2"/>
@@ -19334,13 +19815,13 @@
       <c r="H116" s="2">
         <v>0.09</v>
       </c>
-      <c r="I116" s="12">
+      <c r="I116" s="11">
         <f>G116/'Item List'!$L$2 + H116*(88/'Item List'!$L$2)</f>
-        <v>6.6482758620689664</v>
+        <v>6.4409799554565694</v>
       </c>
       <c r="K116">
         <f>'WH LT Total'!E116+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L116">
         <f t="shared" si="2"/>
@@ -19386,13 +19867,13 @@
       <c r="H117" s="2">
         <v>0.09</v>
       </c>
-      <c r="I117" s="12">
+      <c r="I117" s="11">
         <f>G117/'Item List'!$L$2 + H117*(88/'Item List'!$L$2)</f>
-        <v>6.6482758620689664</v>
+        <v>6.4409799554565694</v>
       </c>
       <c r="K117">
         <f>'WH LT Total'!E117+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L117">
         <f t="shared" si="2"/>
@@ -19438,13 +19919,13 @@
       <c r="H118" s="2">
         <v>0.09</v>
       </c>
-      <c r="I118" s="12">
+      <c r="I118" s="11">
         <f>G118/'Item List'!$L$2 + H118*(88/'Item List'!$L$2)</f>
-        <v>6.6482758620689664</v>
+        <v>6.4409799554565694</v>
       </c>
       <c r="K118">
         <f>'WH LT Total'!E118+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L118">
         <f t="shared" si="2"/>
@@ -19490,13 +19971,13 @@
       <c r="H119" s="2">
         <v>0.2</v>
       </c>
-      <c r="I119" s="12">
+      <c r="I119" s="11">
         <f>G119/'Item List'!$L$2 + H119*(88/'Item List'!$L$2)</f>
-        <v>19.448275862068968</v>
+        <v>18.841870824053451</v>
       </c>
       <c r="K119">
         <f>'WH LT Total'!E119+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L119">
         <f t="shared" si="2"/>
@@ -19542,13 +20023,13 @@
       <c r="H120" s="2">
         <v>0.2</v>
       </c>
-      <c r="I120" s="12">
+      <c r="I120" s="11">
         <f>G120/'Item List'!$L$2 + H120*(88/'Item List'!$L$2)</f>
-        <v>19.448275862068968</v>
+        <v>18.841870824053451</v>
       </c>
       <c r="K120">
         <f>'WH LT Total'!E120+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L120">
         <f t="shared" si="2"/>
@@ -19594,13 +20075,13 @@
       <c r="H121" s="2">
         <v>0.2</v>
       </c>
-      <c r="I121" s="12">
+      <c r="I121" s="11">
         <f>G121/'Item List'!$L$2 + H121*(88/'Item List'!$L$2)</f>
-        <v>19.448275862068968</v>
+        <v>18.841870824053451</v>
       </c>
       <c r="K121">
         <f>'WH LT Total'!E121+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L121">
         <f t="shared" si="2"/>
@@ -19646,13 +20127,13 @@
       <c r="H122" s="2">
         <v>0.2</v>
       </c>
-      <c r="I122" s="12">
+      <c r="I122" s="11">
         <f>G122/'Item List'!$L$2 + H122*(88/'Item List'!$L$2)</f>
-        <v>19.448275862068968</v>
+        <v>18.841870824053451</v>
       </c>
       <c r="K122">
         <f>'WH LT Total'!E122+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L122">
         <f t="shared" si="2"/>
@@ -19698,13 +20179,13 @@
       <c r="H123" s="2">
         <v>0.2</v>
       </c>
-      <c r="I123" s="12">
+      <c r="I123" s="11">
         <f>G123/'Item List'!$L$2 + H123*(88/'Item List'!$L$2)</f>
-        <v>19.448275862068968</v>
+        <v>18.841870824053451</v>
       </c>
       <c r="K123">
         <f>'WH LT Total'!E123+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L123">
         <f t="shared" si="2"/>
@@ -19750,13 +20231,13 @@
       <c r="H124" s="2">
         <v>0.2</v>
       </c>
-      <c r="I124" s="12">
+      <c r="I124" s="11">
         <f>G124/'Item List'!$L$2 + H124*(88/'Item List'!$L$2)</f>
-        <v>19.448275862068968</v>
+        <v>18.841870824053451</v>
       </c>
       <c r="K124">
         <f>'WH LT Total'!E124+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L124">
         <f t="shared" si="2"/>
@@ -19802,13 +20283,13 @@
       <c r="H125" s="2">
         <v>0.2</v>
       </c>
-      <c r="I125" s="12">
+      <c r="I125" s="11">
         <f>G125/'Item List'!$L$2 + H125*(88/'Item List'!$L$2)</f>
-        <v>19.448275862068968</v>
+        <v>18.841870824053451</v>
       </c>
       <c r="K125">
         <f>'WH LT Total'!E125+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L125">
         <f t="shared" si="2"/>
@@ -19854,13 +20335,13 @@
       <c r="H126" s="2">
         <v>0.2</v>
       </c>
-      <c r="I126" s="12">
+      <c r="I126" s="11">
         <f>G126/'Item List'!$L$2 + H126*(88/'Item List'!$L$2)</f>
-        <v>19.448275862068968</v>
+        <v>18.841870824053451</v>
       </c>
       <c r="K126">
         <f>'WH LT Total'!E126+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L126">
         <f t="shared" si="2"/>
@@ -19906,13 +20387,13 @@
       <c r="H127" s="2">
         <v>0.2</v>
       </c>
-      <c r="I127" s="12">
+      <c r="I127" s="11">
         <f>G127/'Item List'!$L$2 + H127*(88/'Item List'!$L$2)</f>
-        <v>21.287356321839084</v>
+        <v>20.623608017817372</v>
       </c>
       <c r="K127">
         <f>'WH LT Total'!E127+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L127">
         <f t="shared" si="2"/>
@@ -19958,13 +20439,13 @@
       <c r="H128" s="2">
         <v>0.2</v>
       </c>
-      <c r="I128" s="12">
+      <c r="I128" s="11">
         <f>G128/'Item List'!$L$2 + H128*(88/'Item List'!$L$2)</f>
-        <v>21.287356321839084</v>
+        <v>20.623608017817372</v>
       </c>
       <c r="K128">
         <f>'WH LT Total'!E128+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L128">
         <f t="shared" si="2"/>
@@ -20010,13 +20491,13 @@
       <c r="H129" s="2">
         <v>0.2</v>
       </c>
-      <c r="I129" s="12">
+      <c r="I129" s="11">
         <f>G129/'Item List'!$L$2 + H129*(88/'Item List'!$L$2)</f>
-        <v>21.287356321839084</v>
+        <v>20.623608017817372</v>
       </c>
       <c r="K129">
         <f>'WH LT Total'!E129+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L129">
         <f t="shared" si="2"/>
@@ -20062,13 +20543,13 @@
       <c r="H130" s="2">
         <v>0.2</v>
       </c>
-      <c r="I130" s="12">
+      <c r="I130" s="11">
         <f>G130/'Item List'!$L$2 + H130*(88/'Item List'!$L$2)</f>
-        <v>21.287356321839084</v>
+        <v>20.623608017817372</v>
       </c>
       <c r="K130">
         <f>'WH LT Total'!E130+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L130">
         <f t="shared" si="2"/>
@@ -20114,13 +20595,13 @@
       <c r="H131" s="1">
         <v>0.7</v>
       </c>
-      <c r="I131" s="12">
+      <c r="I131" s="11">
         <f>G131/'Item List'!$L$2 + H131*(88/'Item List'!$L$2)</f>
-        <v>65.885057471264361</v>
+        <v>63.830734966592424</v>
       </c>
       <c r="K131">
         <f>'WH LT Total'!E131+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L131">
         <f t="shared" ref="L131" si="6">ROUNDUP((J131/30 * K131),0)</f>
@@ -20166,13 +20647,13 @@
       <c r="H132" s="1">
         <v>0.7</v>
       </c>
-      <c r="I132" s="12">
+      <c r="I132" s="11">
         <f>G132/'Item List'!$L$2 + H132*(88/'Item List'!$L$2)</f>
-        <v>65.885057471264361</v>
+        <v>63.830734966592424</v>
       </c>
       <c r="K132">
         <f>'WH LT Total'!E132+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L132">
         <f t="shared" ref="L132:L135" si="8">ROUNDUP((J132/30 * K132),0)</f>
@@ -20218,13 +20699,13 @@
       <c r="H133" s="1">
         <v>0.7</v>
       </c>
-      <c r="I133" s="12">
+      <c r="I133" s="11">
         <f>G133/'Item List'!$L$2 + H133*(88/'Item List'!$L$2)</f>
-        <v>53.011494252873568</v>
+        <v>51.358574610244986</v>
       </c>
       <c r="K133">
         <f>'WH LT Total'!E133+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L133">
         <f t="shared" si="8"/>
@@ -20270,13 +20751,13 @@
       <c r="H134" s="1">
         <v>0.7</v>
       </c>
-      <c r="I134" s="12">
+      <c r="I134" s="11">
         <f>G134/'Item List'!$L$2 + H134*(88/'Item List'!$L$2)</f>
-        <v>53.011494252873568</v>
+        <v>51.358574610244986</v>
       </c>
       <c r="K134">
         <f>'WH LT Total'!E134+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L134">
         <f t="shared" si="8"/>
@@ -20322,13 +20803,13 @@
       <c r="H135" s="5">
         <v>0.9</v>
       </c>
-      <c r="I135" s="12">
+      <c r="I135" s="11">
         <f>G135/'Item List'!$L$2 + H135*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K135">
         <f>'WH LT Total'!E135+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L135">
         <f t="shared" si="8"/>
@@ -20374,13 +20855,13 @@
       <c r="H136" s="5">
         <v>0.9</v>
       </c>
-      <c r="I136" s="12">
+      <c r="I136" s="11">
         <f>G136/'Item List'!$L$2 + H136*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K136">
         <f>'WH LT Total'!E136+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L136">
         <f t="shared" ref="L136:L139" si="10">ROUNDUP((J136/30 * K136),0)</f>
@@ -20426,13 +20907,13 @@
       <c r="H137" s="5">
         <v>0.9</v>
       </c>
-      <c r="I137" s="12">
+      <c r="I137" s="11">
         <f>G137/'Item List'!$L$2 + H137*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K137">
         <f>'WH LT Total'!E137+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L137">
         <f t="shared" si="10"/>
@@ -20478,13 +20959,13 @@
       <c r="H138" s="5">
         <v>0.9</v>
       </c>
-      <c r="I138" s="12">
+      <c r="I138" s="11">
         <f>G138/'Item List'!$L$2 + H138*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K138">
         <f>'WH LT Total'!E138+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L138">
         <f t="shared" si="10"/>
@@ -20530,13 +21011,13 @@
       <c r="H139" s="5">
         <v>0.9</v>
       </c>
-      <c r="I139" s="12">
+      <c r="I139" s="11">
         <f>G139/'Item List'!$L$2 + H139*(88/'Item List'!$L$2)</f>
-        <v>63.264367816091962</v>
+        <v>61.29175946547884</v>
       </c>
       <c r="K139">
         <f>'WH LT Total'!E139+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L139">
         <f t="shared" si="10"/>
@@ -20576,22 +21057,22 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F140</f>
         <v>0</v>
       </c>
-      <c r="G140" s="24">
+      <c r="G140" s="23">
         <v>35</v>
       </c>
-      <c r="H140" s="24">
+      <c r="H140" s="23">
         <v>0.09</v>
       </c>
-      <c r="I140" s="12">
+      <c r="I140" s="11">
         <f>G140/'Item List'!$L$2 + H140*(88/'Item List'!$L$2)</f>
-        <v>9.8666666666666671</v>
+        <v>9.5590200445434288</v>
       </c>
       <c r="K140">
         <f>'WH LT Total'!E140+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L140">
-        <f t="shared" ref="L140" si="12">ROUNDUP((J140/30 * K140),0)</f>
+        <f t="shared" ref="L140:L148" si="12">ROUNDUP((J140/30 * K140),0)</f>
         <v>0</v>
       </c>
       <c r="M140">
@@ -20614,7 +21095,7 @@
       </c>
       <c r="B141" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">goyard black cardholder </v>
       </c>
       <c r="C141">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
@@ -20628,25 +21109,31 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F141</f>
         <v>0</v>
       </c>
-      <c r="I141" s="12">
+      <c r="G141" s="23">
+        <v>35</v>
+      </c>
+      <c r="H141">
+        <v>0.09</v>
+      </c>
+      <c r="I141" s="11">
         <f>G141/'Item List'!$L$2 + H141*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>9.5590200445434288</v>
       </c>
       <c r="K141">
         <f>'WH LT Total'!E141+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L141">
-        <f t="shared" ref="L141:L202" si="14">ROUNDUP((J141/30 * K141),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M141" t="e">
-        <f t="shared" ref="M141:M202" si="15">ROUNDUP(SQRT((J141*2*(42*H141))/(0.1*G141)),0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N141" s="9" t="e">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <f t="shared" ref="M141:M148" si="14">ROUNDUP(SQRT((J141*2*(42*H141))/(0.05*G141)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N141" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L141,M141*I141,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q141">
         <f>I141*Table6[[#This Row],[Stock]]</f>
@@ -20654,13 +21141,13 @@
       </c>
     </row>
     <row r="142" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A142" t="e">
+      <c r="A142">
         <f>Item[[#This Row],[Item No.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B142" t="e">
+        <v>141</v>
+      </c>
+      <c r="B142" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v xml:space="preserve"> gray fog style xl</v>
       </c>
       <c r="C142">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
@@ -20674,25 +21161,31 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F142</f>
         <v>0</v>
       </c>
-      <c r="I142" s="12">
+      <c r="G142">
+        <v>25</v>
+      </c>
+      <c r="H142">
+        <v>0.17</v>
+      </c>
+      <c r="I142" s="11">
         <f>G142/'Item List'!$L$2 + H142*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>8.8997772828507795</v>
       </c>
       <c r="K142">
         <f>'WH LT Total'!E142+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L142">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M142">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M142" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N142" s="9" t="e">
+      <c r="N142" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L142,M142*I142,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q142">
         <f>I142*Table6[[#This Row],[Stock]]</f>
@@ -20700,13 +21193,13 @@
       </c>
     </row>
     <row r="143" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A143" t="e">
+      <c r="A143">
         <f>Item[[#This Row],[Item No.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B143" t="e">
+        <v>142</v>
+      </c>
+      <c r="B143" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v xml:space="preserve"> black fog style xl</v>
       </c>
       <c r="C143">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
@@ -20720,25 +21213,31 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F143</f>
         <v>0</v>
       </c>
-      <c r="I143" s="12">
+      <c r="G143">
+        <v>25</v>
+      </c>
+      <c r="H143">
+        <v>0.17</v>
+      </c>
+      <c r="I143" s="11">
         <f>G143/'Item List'!$L$2 + H143*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>8.8997772828507795</v>
       </c>
       <c r="K143">
         <f>'WH LT Total'!E143+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L143">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M143">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M143" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N143" s="9" t="e">
+      <c r="N143" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L143,M143*I143,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q143">
         <f>I143*Table6[[#This Row],[Stock]]</f>
@@ -20746,13 +21245,13 @@
       </c>
     </row>
     <row r="144" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A144" t="e">
+      <c r="A144">
         <f>Item[[#This Row],[Item No.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B144" t="e">
+        <v>143</v>
+      </c>
+      <c r="B144" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>cdg cream low crazy hearts 40</v>
       </c>
       <c r="C144">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
@@ -20766,25 +21265,31 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F144</f>
         <v>0</v>
       </c>
-      <c r="I144" s="12">
+      <c r="G144">
+        <v>200</v>
+      </c>
+      <c r="H144">
+        <v>1.2</v>
+      </c>
+      <c r="I144" s="11">
         <f>G144/'Item List'!$L$2 + H144*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>68.062360801781736</v>
       </c>
       <c r="K144">
         <f>'WH LT Total'!E144+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L144">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M144">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M144" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N144" s="9" t="e">
+      <c r="N144" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L144,M144*I144,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q144">
         <f>I144*Table6[[#This Row],[Stock]]</f>
@@ -20792,13 +21297,13 @@
       </c>
     </row>
     <row r="145" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A145" t="e">
+      <c r="A145">
         <f>Item[[#This Row],[Item No.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B145" t="e">
+        <v>144</v>
+      </c>
+      <c r="B145" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>cdg cream low crazy hearts 41</v>
       </c>
       <c r="C145">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
@@ -20812,25 +21317,31 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F145</f>
         <v>0</v>
       </c>
-      <c r="I145" s="12">
+      <c r="G145">
+        <v>200</v>
+      </c>
+      <c r="H145">
+        <v>1.2</v>
+      </c>
+      <c r="I145" s="11">
         <f>G145/'Item List'!$L$2 + H145*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>68.062360801781736</v>
       </c>
       <c r="K145">
         <f>'WH LT Total'!E145+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L145">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M145">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M145" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N145" s="9" t="e">
+      <c r="N145" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L145,M145*I145,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q145">
         <f>I145*Table6[[#This Row],[Stock]]</f>
@@ -20838,13 +21349,13 @@
       </c>
     </row>
     <row r="146" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A146" t="e">
+      <c r="A146">
         <f>Item[[#This Row],[Item No.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B146" t="e">
+        <v>145</v>
+      </c>
+      <c r="B146" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>cdg cream low crazy hearts 42</v>
       </c>
       <c r="C146">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
@@ -20858,25 +21369,31 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F146</f>
         <v>0</v>
       </c>
-      <c r="I146" s="12">
+      <c r="G146">
+        <v>200</v>
+      </c>
+      <c r="H146">
+        <v>1.2</v>
+      </c>
+      <c r="I146" s="11">
         <f>G146/'Item List'!$L$2 + H146*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>68.062360801781736</v>
       </c>
       <c r="K146">
         <f>'WH LT Total'!E146+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L146">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M146">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M146" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N146" s="9" t="e">
+      <c r="N146" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L146,M146*I146,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q146">
         <f>I146*Table6[[#This Row],[Stock]]</f>
@@ -20884,13 +21401,13 @@
       </c>
     </row>
     <row r="147" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A147" t="e">
+      <c r="A147">
         <f>Item[[#This Row],[Item No.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B147" t="e">
+        <v>146</v>
+      </c>
+      <c r="B147" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>cdg cream low crazy hearts 43</v>
       </c>
       <c r="C147">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
@@ -20904,25 +21421,31 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F147</f>
         <v>0</v>
       </c>
-      <c r="I147" s="12">
+      <c r="G147">
+        <v>200</v>
+      </c>
+      <c r="H147">
+        <v>1.2</v>
+      </c>
+      <c r="I147" s="11">
         <f>G147/'Item List'!$L$2 + H147*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>68.062360801781736</v>
       </c>
       <c r="K147">
         <f>'WH LT Total'!E147+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L147">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M147">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M147" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N147" s="9" t="e">
+      <c r="N147" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L147,M147*I147,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q147">
         <f>I147*Table6[[#This Row],[Stock]]</f>
@@ -20930,13 +21453,13 @@
       </c>
     </row>
     <row r="148" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A148" t="e">
+      <c r="A148">
         <f>Item[[#This Row],[Item No.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B148" t="e">
+        <v>147</v>
+      </c>
+      <c r="B148" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>cdg cream low crazy hearts 44</v>
       </c>
       <c r="C148">
         <f>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</f>
@@ -20950,25 +21473,31 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F148</f>
         <v>0</v>
       </c>
-      <c r="I148" s="12">
+      <c r="G148">
+        <v>200</v>
+      </c>
+      <c r="H148">
+        <v>1.2</v>
+      </c>
+      <c r="I148" s="11">
         <f>G148/'Item List'!$L$2 + H148*(88/'Item List'!$L$2)</f>
-        <v>0</v>
+        <v>68.062360801781736</v>
       </c>
       <c r="K148">
         <f>'WH LT Total'!E148+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L148">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M148">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M148" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N148" s="9" t="e">
+      <c r="N148" s="9">
         <f>IF(Table6[[#This Row],[Stock]]&lt;=L148,M148*I148,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q148">
         <f>I148*Table6[[#This Row],[Stock]]</f>
@@ -20996,20 +21525,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F149</f>
         <v>0</v>
       </c>
-      <c r="I149" s="12">
+      <c r="I149" s="11">
         <f>G149/'Item List'!$L$2 + H149*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K149">
         <f>'WH LT Total'!E149+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L149">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="L141:L202" si="15">ROUNDUP((J149/30 * K149),0)</f>
         <v>0</v>
       </c>
       <c r="M149" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="M141:M202" si="16">ROUNDUP(SQRT((J149*2*(42*H149))/(0.1*G149)),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N149" s="9" t="e">
@@ -21042,20 +21571,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F150</f>
         <v>0</v>
       </c>
-      <c r="I150" s="12">
+      <c r="I150" s="11">
         <f>G150/'Item List'!$L$2 + H150*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K150">
         <f>'WH LT Total'!E150+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M150" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N150" s="9" t="e">
@@ -21088,20 +21617,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F151</f>
         <v>0</v>
       </c>
-      <c r="I151" s="12">
+      <c r="I151" s="11">
         <f>G151/'Item List'!$L$2 + H151*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K151">
         <f>'WH LT Total'!E151+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M151" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N151" s="9" t="e">
@@ -21134,20 +21663,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F152</f>
         <v>0</v>
       </c>
-      <c r="I152" s="12">
+      <c r="I152" s="11">
         <f>G152/'Item List'!$L$2 + H152*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K152">
         <f>'WH LT Total'!E152+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M152" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N152" s="9" t="e">
@@ -21180,20 +21709,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F153</f>
         <v>0</v>
       </c>
-      <c r="I153" s="12">
+      <c r="I153" s="11">
         <f>G153/'Item List'!$L$2 + H153*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K153">
         <f>'WH LT Total'!E153+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M153" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N153" s="9" t="e">
@@ -21226,20 +21755,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F154</f>
         <v>0</v>
       </c>
-      <c r="I154" s="12">
+      <c r="I154" s="11">
         <f>G154/'Item List'!$L$2 + H154*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K154">
         <f>'WH LT Total'!E154+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M154" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N154" s="9" t="e">
@@ -21272,20 +21801,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F155</f>
         <v>0</v>
       </c>
-      <c r="I155" s="12">
+      <c r="I155" s="11">
         <f>G155/'Item List'!$L$2 + H155*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K155">
         <f>'WH LT Total'!E155+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M155" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N155" s="9" t="e">
@@ -21318,20 +21847,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F156</f>
         <v>0</v>
       </c>
-      <c r="I156" s="12">
+      <c r="I156" s="11">
         <f>G156/'Item List'!$L$2 + H156*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K156">
         <f>'WH LT Total'!E156+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M156" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N156" s="9" t="e">
@@ -21364,20 +21893,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F157</f>
         <v>0</v>
       </c>
-      <c r="I157" s="12">
+      <c r="I157" s="11">
         <f>G157/'Item List'!$L$2 + H157*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K157">
         <f>'WH LT Total'!E157+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M157" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N157" s="9" t="e">
@@ -21410,20 +21939,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F158</f>
         <v>0</v>
       </c>
-      <c r="I158" s="12">
+      <c r="I158" s="11">
         <f>G158/'Item List'!$L$2 + H158*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K158">
         <f>'WH LT Total'!E158+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M158" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N158" s="9" t="e">
@@ -21456,20 +21985,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F159</f>
         <v>0</v>
       </c>
-      <c r="I159" s="12">
+      <c r="I159" s="11">
         <f>G159/'Item List'!$L$2 + H159*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K159">
         <f>'WH LT Total'!E159+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M159" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N159" s="9" t="e">
@@ -21502,20 +22031,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F160</f>
         <v>0</v>
       </c>
-      <c r="I160" s="12">
+      <c r="I160" s="11">
         <f>G160/'Item List'!$L$2 + H160*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K160">
         <f>'WH LT Total'!E160+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M160" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N160" s="9" t="e">
@@ -21548,20 +22077,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F161</f>
         <v>0</v>
       </c>
-      <c r="I161" s="12">
+      <c r="I161" s="11">
         <f>G161/'Item List'!$L$2 + H161*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K161">
         <f>'WH LT Total'!E161+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L161">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M161" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N161" s="9" t="e">
@@ -21594,20 +22123,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F162</f>
         <v>0</v>
       </c>
-      <c r="I162" s="12">
+      <c r="I162" s="11">
         <f>G162/'Item List'!$L$2 + H162*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K162">
         <f>'WH LT Total'!E162+'Parcel LT'!$F$2</f>
-        <v>26.5</v>
+        <v>25.4</v>
       </c>
       <c r="L162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M162" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N162" s="9" t="e">
@@ -21640,20 +22169,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F163</f>
         <v>0</v>
       </c>
-      <c r="I163" s="12">
+      <c r="I163" s="11">
         <f>G163/'Item List'!$L$2 + H163*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K163">
         <f>'WH LT Total'!E163+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M163" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N163" s="9" t="e">
@@ -21686,20 +22215,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F164</f>
         <v>0</v>
       </c>
-      <c r="I164" s="12">
+      <c r="I164" s="11">
         <f>G164/'Item List'!$L$2 + H164*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K164">
         <f>'WH LT Total'!E164+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M164" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N164" s="9" t="e">
@@ -21732,20 +22261,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F165</f>
         <v>0</v>
       </c>
-      <c r="I165" s="12">
+      <c r="I165" s="11">
         <f>G165/'Item List'!$L$2 + H165*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K165">
         <f>'WH LT Total'!E165+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M165" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N165" s="9" t="e">
@@ -21778,20 +22307,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F166</f>
         <v>0</v>
       </c>
-      <c r="I166" s="12">
+      <c r="I166" s="11">
         <f>G166/'Item List'!$L$2 + H166*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K166">
         <f>'WH LT Total'!E166+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M166" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N166" s="9" t="e">
@@ -21824,20 +22353,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F167</f>
         <v>0</v>
       </c>
-      <c r="I167" s="12">
+      <c r="I167" s="11">
         <f>G167/'Item List'!$L$2 + H167*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K167">
         <f>'WH LT Total'!E167+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M167" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N167" s="9" t="e">
@@ -21870,20 +22399,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F168</f>
         <v>0</v>
       </c>
-      <c r="I168" s="12">
+      <c r="I168" s="11">
         <f>G168/'Item List'!$L$2 + H168*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K168">
         <f>'WH LT Total'!E168+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M168" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N168" s="9" t="e">
@@ -21916,20 +22445,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F169</f>
         <v>0</v>
       </c>
-      <c r="I169" s="12">
+      <c r="I169" s="11">
         <f>G169/'Item List'!$L$2 + H169*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K169">
         <f>'WH LT Total'!E169+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M169" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N169" s="9" t="e">
@@ -21962,20 +22491,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F170</f>
         <v>0</v>
       </c>
-      <c r="I170" s="12">
+      <c r="I170" s="11">
         <f>G170/'Item List'!$L$2 + H170*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K170">
         <f>'WH LT Total'!E170+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M170" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N170" s="9" t="e">
@@ -22008,20 +22537,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F171</f>
         <v>0</v>
       </c>
-      <c r="I171" s="12">
+      <c r="I171" s="11">
         <f>G171/'Item List'!$L$2 + H171*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K171">
         <f>'WH LT Total'!E171+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M171" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N171" s="9" t="e">
@@ -22054,20 +22583,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F172</f>
         <v>0</v>
       </c>
-      <c r="I172" s="12">
+      <c r="I172" s="11">
         <f>G172/'Item List'!$L$2 + H172*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K172">
         <f>'WH LT Total'!E172+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M172" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N172" s="9" t="e">
@@ -22100,20 +22629,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F173</f>
         <v>0</v>
       </c>
-      <c r="I173" s="12">
+      <c r="I173" s="11">
         <f>G173/'Item List'!$L$2 + H173*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K173">
         <f>'WH LT Total'!E173+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M173" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N173" s="9" t="e">
@@ -22146,20 +22675,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F174</f>
         <v>0</v>
       </c>
-      <c r="I174" s="12">
+      <c r="I174" s="11">
         <f>G174/'Item List'!$L$2 + H174*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K174">
         <f>'WH LT Total'!E174+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M174" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N174" s="9" t="e">
@@ -22192,20 +22721,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F175</f>
         <v>0</v>
       </c>
-      <c r="I175" s="12">
+      <c r="I175" s="11">
         <f>G175/'Item List'!$L$2 + H175*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K175">
         <f>'WH LT Total'!E175+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M175" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N175" s="9" t="e">
@@ -22238,20 +22767,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F176</f>
         <v>0</v>
       </c>
-      <c r="I176" s="12">
+      <c r="I176" s="11">
         <f>G176/'Item List'!$L$2 + H176*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K176">
         <f>'WH LT Total'!E176+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L176">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M176" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N176" s="9" t="e">
@@ -22284,20 +22813,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F177</f>
         <v>0</v>
       </c>
-      <c r="I177" s="12">
+      <c r="I177" s="11">
         <f>G177/'Item List'!$L$2 + H177*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K177">
         <f>'WH LT Total'!E177+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L177">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M177" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N177" s="9" t="e">
@@ -22330,20 +22859,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F178</f>
         <v>0</v>
       </c>
-      <c r="I178" s="12">
+      <c r="I178" s="11">
         <f>G178/'Item List'!$L$2 + H178*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K178">
         <f>'WH LT Total'!E178+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M178" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N178" s="9" t="e">
@@ -22376,20 +22905,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F179</f>
         <v>0</v>
       </c>
-      <c r="I179" s="12">
+      <c r="I179" s="11">
         <f>G179/'Item List'!$L$2 + H179*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K179">
         <f>'WH LT Total'!E179+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M179" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N179" s="9" t="e">
@@ -22422,20 +22951,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F180</f>
         <v>0</v>
       </c>
-      <c r="I180" s="12">
+      <c r="I180" s="11">
         <f>G180/'Item List'!$L$2 + H180*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K180">
         <f>'WH LT Total'!E180+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L180">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M180" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N180" s="9" t="e">
@@ -22468,20 +22997,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F181</f>
         <v>0</v>
       </c>
-      <c r="I181" s="12">
+      <c r="I181" s="11">
         <f>G181/'Item List'!$L$2 + H181*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K181">
         <f>'WH LT Total'!E181+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L181">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M181" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N181" s="9" t="e">
@@ -22514,20 +23043,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F182</f>
         <v>0</v>
       </c>
-      <c r="I182" s="12">
+      <c r="I182" s="11">
         <f>G182/'Item List'!$L$2 + H182*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K182">
         <f>'WH LT Total'!E182+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L182">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M182" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N182" s="9" t="e">
@@ -22560,20 +23089,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F183</f>
         <v>0</v>
       </c>
-      <c r="I183" s="12">
+      <c r="I183" s="11">
         <f>G183/'Item List'!$L$2 + H183*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K183">
         <f>'WH LT Total'!E183+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L183">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M183" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N183" s="9" t="e">
@@ -22606,20 +23135,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F184</f>
         <v>0</v>
       </c>
-      <c r="I184" s="12">
+      <c r="I184" s="11">
         <f>G184/'Item List'!$L$2 + H184*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K184">
         <f>'WH LT Total'!E184+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M184" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N184" s="9" t="e">
@@ -22652,20 +23181,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F185</f>
         <v>0</v>
       </c>
-      <c r="I185" s="12">
+      <c r="I185" s="11">
         <f>G185/'Item List'!$L$2 + H185*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K185">
         <f>'WH LT Total'!E185+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M185" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N185" s="9" t="e">
@@ -22698,20 +23227,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F186</f>
         <v>0</v>
       </c>
-      <c r="I186" s="12">
+      <c r="I186" s="11">
         <f>G186/'Item List'!$L$2 + H186*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K186">
         <f>'WH LT Total'!E186+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L186">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M186" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N186" s="9" t="e">
@@ -22744,20 +23273,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F187</f>
         <v>0</v>
       </c>
-      <c r="I187" s="12">
+      <c r="I187" s="11">
         <f>G187/'Item List'!$L$2 + H187*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K187">
         <f>'WH LT Total'!E187+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L187">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M187" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N187" s="9" t="e">
@@ -22790,20 +23319,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F188</f>
         <v>0</v>
       </c>
-      <c r="I188" s="12">
+      <c r="I188" s="11">
         <f>G188/'Item List'!$L$2 + H188*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K188">
         <f>'WH LT Total'!E188+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L188">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M188" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N188" s="9" t="e">
@@ -22836,20 +23365,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F189</f>
         <v>0</v>
       </c>
-      <c r="I189" s="12">
+      <c r="I189" s="11">
         <f>G189/'Item List'!$L$2 + H189*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K189">
         <f>'WH LT Total'!E189+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L189">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M189" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N189" s="9" t="e">
@@ -22882,20 +23411,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F190</f>
         <v>0</v>
       </c>
-      <c r="I190" s="12">
+      <c r="I190" s="11">
         <f>G190/'Item List'!$L$2 + H190*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K190">
         <f>'WH LT Total'!E190+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L190">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M190" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N190" s="9" t="e">
@@ -22928,20 +23457,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F191</f>
         <v>0</v>
       </c>
-      <c r="I191" s="12">
+      <c r="I191" s="11">
         <f>G191/'Item List'!$L$2 + H191*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K191">
         <f>'WH LT Total'!E191+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L191">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M191" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N191" s="9" t="e">
@@ -22974,20 +23503,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F192</f>
         <v>0</v>
       </c>
-      <c r="I192" s="12">
+      <c r="I192" s="11">
         <f>G192/'Item List'!$L$2 + H192*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K192">
         <f>'WH LT Total'!E192+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L192">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M192" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N192" s="9" t="e">
@@ -23020,20 +23549,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F193</f>
         <v>0</v>
       </c>
-      <c r="I193" s="12">
+      <c r="I193" s="11">
         <f>G193/'Item List'!$L$2 + H193*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K193">
         <f>'WH LT Total'!E193+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L193">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M193" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N193" s="9" t="e">
@@ -23066,20 +23595,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F194</f>
         <v>0</v>
       </c>
-      <c r="I194" s="12">
+      <c r="I194" s="11">
         <f>G194/'Item List'!$L$2 + H194*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K194">
         <f>'WH LT Total'!E194+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L194">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M194" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N194" s="9" t="e">
@@ -23112,20 +23641,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F195</f>
         <v>0</v>
       </c>
-      <c r="I195" s="12">
+      <c r="I195" s="11">
         <f>G195/'Item List'!$L$2 + H195*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K195">
         <f>'WH LT Total'!E195+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L195">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M195" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N195" s="9" t="e">
@@ -23158,20 +23687,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F196</f>
         <v>0</v>
       </c>
-      <c r="I196" s="12">
+      <c r="I196" s="11">
         <f>G196/'Item List'!$L$2 + H196*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K196">
         <f>'WH LT Total'!E196+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L196">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M196" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N196" s="9" t="e">
@@ -23204,20 +23733,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F197</f>
         <v>0</v>
       </c>
-      <c r="I197" s="12">
+      <c r="I197" s="11">
         <f>G197/'Item List'!$L$2 + H197*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K197">
         <f>'WH LT Total'!E197+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L197">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M197" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N197" s="9" t="e">
@@ -23250,20 +23779,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F198</f>
         <v>0</v>
       </c>
-      <c r="I198" s="12">
+      <c r="I198" s="11">
         <f>G198/'Item List'!$L$2 + H198*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K198">
         <f>'WH LT Total'!E198+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L198">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M198" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N198" s="9" t="e">
@@ -23296,20 +23825,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F199</f>
         <v>0</v>
       </c>
-      <c r="I199" s="12">
+      <c r="I199" s="11">
         <f>G199/'Item List'!$L$2 + H199*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K199">
         <f>'WH LT Total'!E199+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L199">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M199" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N199" s="9" t="e">
@@ -23342,20 +23871,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F200</f>
         <v>0</v>
       </c>
-      <c r="I200" s="12">
+      <c r="I200" s="11">
         <f>G200/'Item List'!$L$2 + H200*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K200">
         <f>'WH LT Total'!E200+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L200">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M200" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N200" s="9" t="e">
@@ -23388,20 +23917,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F201</f>
         <v>0</v>
       </c>
-      <c r="I201" s="12">
+      <c r="I201" s="11">
         <f>G201/'Item List'!$L$2 + H201*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K201">
         <f>'WH LT Total'!E201+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L201">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M201" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N201" s="9" t="e">
@@ -23434,20 +23963,20 @@
         <f>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F202</f>
         <v>0</v>
       </c>
-      <c r="I202" s="12">
+      <c r="I202" s="11">
         <f>G202/'Item List'!$L$2 + H202*(88/'Item List'!$L$2)</f>
         <v>0</v>
       </c>
       <c r="K202">
         <f>'WH LT Total'!E202+'Parcel LT'!$F$2</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="L202">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M202" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N202" s="9" t="e">
@@ -28940,98 +29469,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="lessThan">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="greaterThan">
       <formula>$L$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="lessThan">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="greaterThan">
       <formula>$L$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E139">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="lessThan">
       <formula>L2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
       <formula>L2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="greaterThan">
       <formula>L2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E202">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E202">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E202">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E202">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E202">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
       <formula>L140</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>L140</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
       <formula>L140</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30535,13 +31064,13 @@
         <v>69</v>
       </c>
       <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>126</v>
-      </c>
-      <c r="E1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -33470,7 +33999,7 @@
       </c>
       <c r="B141" s="7" t="str">
         <f>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v xml:space="preserve">   </v>
+        <v xml:space="preserve">goyard black cardholder </v>
       </c>
       <c r="C141" t="e">
         <f>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D141)/IF(COUNT(D141) = 1, 2, 1)</f>
@@ -33489,9 +34018,9 @@
         <f>Item[[#This Row],[Item No.]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B142" s="7" t="e">
+      <c r="B142" s="7" t="str">
         <f>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v xml:space="preserve"> gray fog style xl</v>
       </c>
       <c r="C142" t="e">
         <f>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D142)/IF(COUNT(D142) = 1, 2, 1)</f>
@@ -33506,13 +34035,13 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="7" t="e">
+      <c r="A143" s="7">
         <f>Item[[#This Row],[Item No.]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B143" s="7" t="e">
+        <v>142</v>
+      </c>
+      <c r="B143" s="7" t="str">
         <f>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v xml:space="preserve"> black fog style xl</v>
       </c>
       <c r="C143" t="e">
         <f>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D143)/IF(COUNT(D143) = 1, 2, 1)</f>
@@ -33531,9 +34060,9 @@
         <f>Item[[#This Row],[Item No.]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B144" s="7" t="e">
+      <c r="B144" s="7" t="str">
         <f>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>cdg cream low crazy hearts 40</v>
       </c>
       <c r="C144" t="e">
         <f>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D144)/IF(COUNT(D144) = 1, 2, 1)</f>
@@ -33552,9 +34081,9 @@
         <f>Item[[#This Row],[Item No.]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B145" s="7" t="e">
+      <c r="B145" s="7" t="str">
         <f>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>cdg cream low crazy hearts 41</v>
       </c>
       <c r="C145" t="e">
         <f>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D145)/IF(COUNT(D145) = 1, 2, 1)</f>
@@ -33573,9 +34102,9 @@
         <f>Item[[#This Row],[Item No.]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B146" s="7" t="e">
+      <c r="B146" s="7" t="str">
         <f>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>cdg cream low crazy hearts 42</v>
       </c>
       <c r="C146" t="e">
         <f>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D146)/IF(COUNT(D146) = 1, 2, 1)</f>
@@ -33594,9 +34123,9 @@
         <f>Item[[#This Row],[Item No.]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B147" s="7" t="e">
+      <c r="B147" s="7" t="str">
         <f>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>cdg cream low crazy hearts 43</v>
       </c>
       <c r="C147" t="e">
         <f>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D147)/IF(COUNT(D147) = 1, 2, 1)</f>
@@ -33615,9 +34144,9 @@
         <f>Item[[#This Row],[Item No.]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B148" s="7" t="e">
+      <c r="B148" s="7" t="str">
         <f>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>cdg cream low crazy hearts 44</v>
       </c>
       <c r="C148" t="e">
         <f>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D148)/IF(COUNT(D148) = 1, 2, 1)</f>
@@ -33938,7 +34467,7 @@
   <dimension ref="A1:F786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33949,19 +34478,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -33969,19 +34498,19 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>43894</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>43916</v>
       </c>
       <c r="D2">
         <f>IF(COUNT(C2) = 1, C2-B2, "")</f>
         <v>22</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <f>AVERAGE(D2:D1000)</f>
-        <v>21.5</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -33989,10 +34518,10 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>43895</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>43906</v>
       </c>
       <c r="D3">
@@ -34005,10 +34534,10 @@
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>43916</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>43949</v>
       </c>
       <c r="D4">
@@ -34021,10 +34550,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>43929</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>43949</v>
       </c>
       <c r="D5">
@@ -34037,7 +34566,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>43947</v>
       </c>
       <c r="D6" t="str">
@@ -34050,7 +34579,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>43947</v>
       </c>
       <c r="D7" t="str">
@@ -34063,7 +34592,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>43947</v>
       </c>
       <c r="D8" t="str">
@@ -34076,7 +34605,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>43947</v>
       </c>
       <c r="D9" t="str">
@@ -34089,7 +34618,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>43947</v>
       </c>
       <c r="D10" t="str">
@@ -34102,7 +34631,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>43947</v>
       </c>
       <c r="D11" t="str">
@@ -34115,7 +34644,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>43947</v>
       </c>
       <c r="D12" t="str">
@@ -34128,7 +34657,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>43947</v>
       </c>
       <c r="D13" t="str">
@@ -34141,7 +34670,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>43947</v>
       </c>
       <c r="D14" t="str">
@@ -34154,7 +34683,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>43947</v>
       </c>
       <c r="D15" t="str">
@@ -34167,7 +34696,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>43958</v>
       </c>
       <c r="D16" t="str">
@@ -34180,7 +34709,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>43958</v>
       </c>
       <c r="D17" t="str">
@@ -34193,21 +34722,21 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>43958</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>43960</v>
       </c>
       <c r="D19" t="str">
@@ -34220,12 +34749,15 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>43960</v>
       </c>
-      <c r="D20" t="str">
+      <c r="C20" s="15">
+        <v>43976</v>
+      </c>
+      <c r="D20">
         <f t="shared" si="1"/>
-        <v/>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -34233,7 +34765,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>43964</v>
       </c>
       <c r="D21" t="str">
@@ -34246,7 +34778,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>43964</v>
       </c>
       <c r="D22" t="str">
@@ -34259,7 +34791,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>43964</v>
       </c>
       <c r="D23" t="str">
@@ -34272,7 +34804,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>43971</v>
       </c>
       <c r="D24" t="str">
@@ -34285,7 +34817,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>43971</v>
       </c>
       <c r="D25" t="str">
@@ -34298,7 +34830,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>43971</v>
       </c>
       <c r="D26" t="str">
@@ -34311,7 +34843,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>43971</v>
       </c>
       <c r="D27" t="str">
@@ -34324,7 +34856,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <v>43971</v>
       </c>
       <c r="D28" t="str">
@@ -34337,7 +34869,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>43971</v>
       </c>
       <c r="D29" t="str">
@@ -34350,7 +34882,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>43974</v>
       </c>
       <c r="D30" t="str">
@@ -34363,7 +34895,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <v>43974</v>
       </c>
       <c r="D31" t="str">

--- a/InventoryTemplate.xlsx
+++ b/InventoryTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jokal\Documents\GitHub\MonthlyInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01875D8E-9430-4F24-B3CC-F92A8F9482D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC23661-570D-43F8-9559-2670A21021D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Income Statement" sheetId="16" r:id="rId1"/>
@@ -739,7 +739,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="48">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -751,96 +751,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1463,10 +1373,10 @@
   <autoFilter ref="A1:C7" xr:uid="{423054D3-B806-45FE-B5CD-CDB4133D610A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E561F936-1F3D-4A27-BDEF-DE70FF707914}" name="Sales Rep"/>
-    <tableColumn id="2" xr3:uid="{59BD1632-76DC-41FD-B7D6-5B176F01EC08}" name="Amount Sold" dataDxfId="56">
+    <tableColumn id="2" xr3:uid="{59BD1632-76DC-41FD-B7D6-5B176F01EC08}" name="Amount Sold" dataDxfId="47">
       <calculatedColumnFormula>SUMIF(Sold[Sales Rep],Reps[[#This Row],[Sales Rep]],Sold[$ Sold])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6CCF9C48-9936-46E7-8CB7-02286CBB8F96}" name="COGS" dataDxfId="55">
+    <tableColumn id="7" xr3:uid="{6CCF9C48-9936-46E7-8CB7-02286CBB8F96}" name="COGS" dataDxfId="46">
       <calculatedColumnFormula>SUMIF(Sold[Sales Rep],Reps[[#This Row],[Sales Rep]],Sold[COGS])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1475,7 +1385,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B91DAB9-2488-4C65-8D26-8617DE377A7F}" name="Item" displayName="Item" ref="A1:J148" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B91DAB9-2488-4C65-8D26-8617DE377A7F}" name="Item" displayName="Item" ref="A1:J148" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="A1:J148" xr:uid="{338B19A3-4E7F-4305-8DA8-C1DD932C945D}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{76ECD7E3-2AAF-49EF-B389-8E9AD3EC4889}" name="Item No.">
@@ -1484,14 +1394,14 @@
     <tableColumn id="2" xr3:uid="{089EB420-BA9D-465F-A82E-00F39746A82B}" name="Name">
       <calculatedColumnFormula>CONCATENATE(D2, " ", E2, " ", F2, " ", G2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{810F8BD1-1554-4324-8BC2-B3DA55D1C66A}" name="Type" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{E34FC3E7-878F-43D0-AC2F-3F57F83516D7}" name="Brand" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{F1C64583-71BC-48AB-B216-992FD862D054}" name="Color" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{6FAA4371-7C0E-4987-B478-43A238D2DC24}" name="Version" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{0934FF0F-667A-48A5-AB7D-FC1B53794619}" name="Size" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{47375999-8B78-4FA8-A989-678115E68572}" name="Price (yuan)" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{5A5859F2-A76E-4289-88C0-31B5E39FA5A4}" name="Weight (kg)" dataDxfId="45"/>
-    <tableColumn id="10" xr3:uid="{B5B344B4-A21A-43DA-94CB-FEFEE6D315AB}" name="Cost (CAD)" dataDxfId="44">
+    <tableColumn id="3" xr3:uid="{810F8BD1-1554-4324-8BC2-B3DA55D1C66A}" name="Type" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{E34FC3E7-878F-43D0-AC2F-3F57F83516D7}" name="Brand" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{F1C64583-71BC-48AB-B216-992FD862D054}" name="Color" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{6FAA4371-7C0E-4987-B478-43A238D2DC24}" name="Version" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{0934FF0F-667A-48A5-AB7D-FC1B53794619}" name="Size" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{47375999-8B78-4FA8-A989-678115E68572}" name="Price (yuan)" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{5A5859F2-A76E-4289-88C0-31B5E39FA5A4}" name="Weight (kg)" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{B5B344B4-A21A-43DA-94CB-FEFEE6D315AB}" name="Cost (CAD)" dataDxfId="35">
       <calculatedColumnFormula>H2/$L$2 + I2*(88/$L$2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1504,7 +1414,7 @@
   <autoFilter ref="A1:D123" xr:uid="{A3364FEC-0216-446E-B47A-1936D1CF0D9A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9C55E7E1-1699-4512-A378-3E8388A4CA4A}" name="Item No."/>
-    <tableColumn id="2" xr3:uid="{A0084F60-B9B5-4BC6-8371-A2A9E462C1DB}" name="Name" dataDxfId="43">
+    <tableColumn id="2" xr3:uid="{A0084F60-B9B5-4BC6-8371-A2A9E462C1DB}" name="Name" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP(Ordered[[#This Row],[Item No.]],Item[],2, FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{0D59388F-D09D-4D37-84C1-1DB6F0F30E5D}" name="Quantity"/>
@@ -1519,10 +1429,10 @@
   <autoFilter ref="A1:F24" xr:uid="{B1D6D3B7-D72F-446F-BEE7-1981D2202527}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{11A2CD94-A8D7-4499-8CC6-2396CF6F1936}" name="Item No."/>
-    <tableColumn id="2" xr3:uid="{5A0B702F-D35D-4155-BE8E-E03CC6C1DA05}" name="Name" dataDxfId="42">
+    <tableColumn id="2" xr3:uid="{5A0B702F-D35D-4155-BE8E-E03CC6C1DA05}" name="Name" dataDxfId="33">
       <calculatedColumnFormula>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],2,FALSE )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D96E9528-30A8-4B3B-BE4F-A9AC6F9A120C}" name="COGS" dataDxfId="41">
+    <tableColumn id="7" xr3:uid="{D96E9528-30A8-4B3B-BE4F-A9AC6F9A120C}" name="COGS" dataDxfId="32">
       <calculatedColumnFormula>VLOOKUP(Sold[[#This Row],[Item No.]],Item[],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FBD8DE58-B82A-49D9-A6E3-5DF62E16AFC8}" name="Sales Rep"/>
@@ -1539,19 +1449,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32FE0233-B352-41CE-B041-9AB1F875A1E8}" name="Table6" displayName="Table6" ref="A1:E202" totalsRowShown="0">
   <autoFilter ref="A1:E202" xr:uid="{745CBCF9-5879-4910-8252-37DA48775F72}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AC3470A5-26F7-49DF-A63C-6EB586DA625B}" name="Item No." dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{AC3470A5-26F7-49DF-A63C-6EB586DA625B}" name="Item No." dataDxfId="7">
       <calculatedColumnFormula>Item[[#This Row],[Item No.]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{08316D3D-FE6D-4ED2-B0E7-C4A15267A5B0}" name="Name">
       <calculatedColumnFormula>VLOOKUP(Table6[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4EB779E6-1AC3-4338-8605-4C82312737F4}" name="Ordered Qty" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{4EB779E6-1AC3-4338-8605-4C82312737F4}" name="Ordered Qty" dataDxfId="6">
       <calculatedColumnFormula>SUMIF(Ordered[Name], Table6[[#This Row],[Name]], Ordered[Quantity])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{05421814-BC5C-4151-B7C2-CFA9CD3C1A70}" name="Sold Qty" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{05421814-BC5C-4151-B7C2-CFA9CD3C1A70}" name="Sold Qty" dataDxfId="5">
       <calculatedColumnFormula>SUMIF(Sold[Name], Table6[[#This Row],[Name]], Sold[Quantity])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DE870AF7-195A-490B-A40F-07552F264DB6}" name="Stock" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{DE870AF7-195A-490B-A40F-07552F264DB6}" name="Stock" dataDxfId="4">
       <calculatedColumnFormula>Table6[[#This Row],[Ordered Qty]]-Table6[[#This Row],[Sold Qty]]+F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1564,7 +1474,7 @@
   <autoFilter ref="A1:C240" xr:uid="{2065D6E7-2F3A-4A4B-8BDB-6F3FC9CBA9A0}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2815B3D4-F6D8-48C7-8513-6E09A4DB4184}" name="Item No."/>
-    <tableColumn id="2" xr3:uid="{9FDF5DDA-42A6-4CD6-9DAD-E068370121FE}" name="Name" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{9FDF5DDA-42A6-4CD6-9DAD-E068370121FE}" name="Name" dataDxfId="3">
       <calculatedColumnFormula>VLOOKUP(LeadtimeData[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{FC321291-4BA5-4204-A6D0-EE9455A51C13}" name="Leadtime"/>
@@ -1577,13 +1487,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{790F9CA1-1F53-41E1-BBB6-35F87C6F66B1}" name="Table5" displayName="Table5" ref="A1:C162" totalsRowShown="0">
   <autoFilter ref="A1:C162" xr:uid="{2EDE1ABF-FBEF-4545-8613-7C6262E1078B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB7E844F-46D4-45EA-ACFF-1532F6DF68B7}" name="Item No." dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{AB7E844F-46D4-45EA-ACFF-1532F6DF68B7}" name="Item No." dataDxfId="2">
       <calculatedColumnFormula>Item[[#This Row],[Item No.]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DC1C0296-D13C-4B72-8F1C-E87FFB8E437E}" name="Name" dataDxfId="14">
+    <tableColumn id="2" xr3:uid="{DC1C0296-D13C-4B72-8F1C-E87FFB8E437E}" name="Name" dataDxfId="1">
       <calculatedColumnFormula>VLOOKUP(Item[[#This Row],[Item No.]],Item[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A7271303-53D7-4A86-B0B6-AD31E39F321B}" name="Current Avg LT" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{A7271303-53D7-4A86-B0B6-AD31E39F321B}" name="Current Avg LT" dataDxfId="0">
       <calculatedColumnFormula>(AVERAGEIF(LeadtimeData[Name], Table5[[#This Row],[Name]], LeadtimeData[Leadtime]) + D2)/IF(COUNT(D2) = 1, 2, 1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13796,7 +13706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A2DDF1-7DF8-49E1-8788-877E2A282819}">
   <dimension ref="A1:Q1116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -21534,11 +21444,11 @@
         <v>25.4</v>
       </c>
       <c r="L149">
-        <f t="shared" ref="L141:L202" si="15">ROUNDUP((J149/30 * K149),0)</f>
+        <f t="shared" ref="L149:L202" si="15">ROUNDUP((J149/30 * K149),0)</f>
         <v>0</v>
       </c>
       <c r="M149" t="e">
-        <f t="shared" ref="M141:M202" si="16">ROUNDUP(SQRT((J149*2*(42*H149))/(0.1*G149)),0)</f>
+        <f t="shared" ref="M149:M202" si="16">ROUNDUP(SQRT((J149*2*(42*H149))/(0.1*G149)),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N149" s="9" t="e">
@@ -29469,98 +29379,98 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="40" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="30" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="39" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E56 E59:E139">
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="lessThan">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="greaterThan">
       <formula>$L$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="lessThan">
       <formula>$L$57</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="greaterThan">
       <formula>$L$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E139">
-    <cfRule type="cellIs" dxfId="28" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="lessThan">
       <formula>L2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>L2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
       <formula>L2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E202">
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E202">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E202">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E202">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThan">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="lessThan">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E202">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="lessThan">
       <formula>L140</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>L140</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
       <formula>L140</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34466,8 +34376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC86F796-2BB7-4B8E-8546-E4532C9D9329}">
   <dimension ref="A1:F786"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34908,6 +34818,9 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
+      <c r="B32" s="15">
+        <v>43984</v>
+      </c>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
         <v/>
